--- a/data/450_D_features_case.xlsx
+++ b/data/450_D_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:R281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8422,6 +8422,7790 @@
         <v>0.99551</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.001594136176128</v>
+      </c>
+      <c r="B143" t="n">
+        <v>51.27854108126824</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.052578377157238e-05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.02316429330899719</v>
+      </c>
+      <c r="E143" t="n">
+        <v>8.176122854710335e-07</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.0002323862961305185</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2.020355953950311e-07</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.0002094605019140348</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.01209569496971971</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.0001500662646145962</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.0001840779522752026</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.001986607571443518</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-7.397117310595343e-05</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2.370212076002775e-05</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-3.962147686954458e-05</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.0004842565261670727</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>4164.708703155362</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.0045</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.001592310106717</v>
+      </c>
+      <c r="B144" t="n">
+        <v>51.27392933742863</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.008067647956354e-05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.02758680005477523</v>
+      </c>
+      <c r="E144" t="n">
+        <v>8.399029732726886e-07</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.000339064695525575</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4.777029294345824e-07</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.0002105154288786866</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.01755754776958637</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0001314172711851327</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.000283075731197887</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.001974734342522843</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-6.002873580179656e-05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1.924167785274116e-05</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-4.029765150715182e-05</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.0004871839892643411</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>4164.487514036905</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.0135</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.001589440408932</v>
+      </c>
+      <c r="B145" t="n">
+        <v>51.26627636783946</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.887102820997626e-05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.03255948997721803</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8.964366142458194e-07</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.0004475087589263608</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4.239079040018841e-07</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.0002167411330255415</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.02311845268837286</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0001290313657200961</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.0003801009375375524</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.002012606191709264</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-4.499912135469538e-05</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.366239302020123e-05</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-3.739802815944758e-05</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.0004963361307703774</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>4164.119882346358</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.0224</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.001586283741369</v>
+      </c>
+      <c r="B146" t="n">
+        <v>51.25565278774201</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.165492583002041e-05</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.03805400871751304</v>
+      </c>
+      <c r="E146" t="n">
+        <v>8.688659826236771e-07</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.0005533248484579622</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4.501608170052049e-07</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.0002143481720134094</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.02854420746982658</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.0001230313131078179</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.00047506352661418</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.001960803526589544</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-2.976664302983165e-05</v>
+      </c>
+      <c r="N146" t="n">
+        <v>7.445128153136491e-06</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-3.083165153921484e-05</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0.000500968744652226</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>4163.612258974901</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.0314</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.001581748273698</v>
+      </c>
+      <c r="B147" t="n">
+        <v>51.2420465279646</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.96705988974577e-05</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.0440234317522793</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8.668510449487714e-07</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.0006590243749791164</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-6.819482800982021e-07</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.0002177862326932562</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.03395751209125614</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0001070521721018419</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.0005671863263107071</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.001956425932029016</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-1.584485780939365e-05</v>
+      </c>
+      <c r="N147" t="n">
+        <v>7.578731325790402e-07</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-1.970996339397189e-05</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0.0005107885596659305</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>4162.964383527492</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.0404</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.001576522284997</v>
+      </c>
+      <c r="B148" t="n">
+        <v>51.2255366733427</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.354685805271617e-05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.05037739235205611</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.794231172901083e-07</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.0007504650435712378</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1.119447289683772e-06</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.0002206626246892008</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.0386353940226873</v>
+      </c>
+      <c r="J148" t="n">
+        <v>8.186541540849612e-05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.0006569002630691815</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.001949888625770982</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-2.974732801253497e-06</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-6.021425134758428e-06</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-9.431333343827972e-06</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0.0005185509321639594</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>4162.180078443424</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.0493</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.001569553179087</v>
+      </c>
+      <c r="B149" t="n">
+        <v>51.20620148043524</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-4.273850294318345e-06</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.05702899219494017</v>
+      </c>
+      <c r="E149" t="n">
+        <v>9.083910871765989e-07</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.0008526189964091225</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1.570899451143394e-06</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.0002232105111220374</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.04385546325400937</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5.781401183607086e-05</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.0007444572173897956</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.001937492219762303</v>
+      </c>
+      <c r="M149" t="n">
+        <v>8.743057780150511e-06</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-1.239679324389193e-05</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-4.335790175270775e-06</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0.0005239468050802644</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>4161.265975296793</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.0583</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.001561286543808</v>
+      </c>
+      <c r="B150" t="n">
+        <v>51.18410244721449</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-1.955852300500536e-05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.06389469153838158</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.674256676912946e-07</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.0009514753281712572</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1.675290354365079e-06</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0002327210568771081</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.04890415908572912</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5.373942318062517e-05</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0008298230476799871</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.001972758369515938</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.884861153820814e-05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-1.775937474950958e-05</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-6.811053767811055e-06</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.000533959311988076</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>4160.221798047284</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.0673</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.00155234732311</v>
+      </c>
+      <c r="B151" t="n">
+        <v>51.15938332635836</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-2.885441131118708e-05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.07090016047235299</v>
+      </c>
+      <c r="E151" t="n">
+        <v>9.42200495194153e-07</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.001045410539231571</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1.363413110089903e-06</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.0002343636722386134</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.0536882826150856</v>
+      </c>
+      <c r="J151" t="n">
+        <v>7.22258066173687e-05</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.0009137364684833945</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.001920547513239969</v>
+      </c>
+      <c r="M151" t="n">
+        <v>2.633200269635134e-05</v>
+      </c>
+      <c r="N151" t="n">
+        <v>-2.175109906586293e-05</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-9.657275522885339e-06</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0.0005381769566587451</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>4159.055055146659</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.0762</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.001541259752489</v>
+      </c>
+      <c r="B152" t="n">
+        <v>51.13194478073714</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-3.171339855574662e-05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.0780401123274669</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.395780261439558e-07</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.001140167238742826</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-9.136486499988805e-07</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0002422277002919519</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.05851840445120144</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9.836894657678929e-05</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.0009957333960407138</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.001913016817811556</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3.010865510972483e-05</v>
+      </c>
+      <c r="N152" t="n">
+        <v>-2.46878793660515e-05</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-1.809533675134398e-06</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.0005470255281581496</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>4157.762145102433</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.0852</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.001528306878307</v>
+      </c>
+      <c r="B153" t="n">
+        <v>51.1017217065734</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-2.989048062019841e-05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.08531204591022479</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.491464835204129e-07</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.001223756601232849</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5.176411570927515e-07</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0002490427799894908</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.06278487534050071</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0001225670532734983</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.001076437287538985</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.00189879883374934</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3.00239741920879e-05</v>
+      </c>
+      <c r="N153" t="n">
+        <v>-2.65537928878825e-05</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1.525710551056893e-05</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0.0005543302973840663</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>4156.341045608889</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1.0941</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.001516450318357</v>
+      </c>
+      <c r="B154" t="n">
+        <v>51.06860508898056</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-2.489634175746593e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.09274664127576375</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.727595490852837e-07</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.001323173422376132</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2.308578934176295e-07</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0002543558643789346</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.06786163170195249</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0001421438672565492</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.001156152052264246</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.00187901122611699</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2.644203664883543e-05</v>
+      </c>
+      <c r="N154" t="n">
+        <v>-2.7643019399025e-05</v>
+      </c>
+      <c r="O154" t="n">
+        <v>4.007497370032832e-05</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0.0005605544155993857</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>4154.778610888686</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.103</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.001504484463277</v>
+      </c>
+      <c r="B155" t="n">
+        <v>51.03240349644774</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-1.795501200262882e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.1004077995518526</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.022463956518989e-06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.001425732618497613</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2.103190922394739e-08</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0002650572851209969</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.07309396228386654</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0001608773333143475</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.001234719575962918</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.001917605223840164</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2.005001470961903e-05</v>
+      </c>
+      <c r="N155" t="n">
+        <v>-2.851785066391156e-05</v>
+      </c>
+      <c r="O155" t="n">
+        <v>6.547764628234296e-05</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.0005734551654678633</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>4153.065687947217</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1.112</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.001491099452964</v>
+      </c>
+      <c r="B156" t="n">
+        <v>50.99316785863751</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-1.006302826446807e-05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.1083710687666243</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.002059501050579e-06</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.001525361584690835</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2.705582981571171e-07</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.0002659106779442552</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.07815225221874594</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0001801345585164263</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.001314851633261591</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.001847029593135643</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.202361587538237e-05</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-2.90925503911159e-05</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.000104282298058414</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.000581847629708758</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>4151.208600179123</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.1209</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.001476878755269</v>
+      </c>
+      <c r="B157" t="n">
+        <v>50.95050326826691</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-1.445763478860687e-06</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.1167255319369038</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.006858528848422e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.001629135925174872</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6.351791839184876e-07</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.0002722887533942459</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.08340451170796839</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.0002052194787936306</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.001396270706164868</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.001831375057917078</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3.285200360568063e-06</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-2.968167197679082e-05</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0.0001553113079465656</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.0005964624236903889</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>4149.185165212401</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.1298</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.001463358667384</v>
+      </c>
+      <c r="B158" t="n">
+        <v>50.90424301756693</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.655396010696392e-06</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.125478342944546</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.018823643904919e-06</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.001720712908931935</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9.390165973006889e-07</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.0002768657707433875</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.08803221089414004</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0002263894488606528</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.001481082319037156</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.001813401431610518</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-5.248989780618829e-06</v>
+      </c>
+      <c r="N158" t="n">
+        <v>-3.071914313716446e-05</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0.0002132859235064184</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.0006094875318489809</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>4146.984642318858</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.1387</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.001449942830239</v>
+      </c>
+      <c r="B159" t="n">
+        <v>50.85430960975098</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.453196765486423e-06</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.1346169362546151</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.041386073167093e-06</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.001823427089610797</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.035497849982065e-06</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.0002799342929488511</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.09323051701890214</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0002361819465539963</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.001569438237788838</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.001791263345583106</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-1.379194586480224e-05</v>
+      </c>
+      <c r="N159" t="n">
+        <v>-3.288210328789395e-05</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0.0002668493263138271</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0.0006213188510521727</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>4144.606115803204</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.1476</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.001432305398619</v>
+      </c>
+      <c r="B160" t="n">
+        <v>50.8007183056577</v>
+      </c>
+      <c r="C160" t="n">
+        <v>3.651568575688473e-06</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.1441091500138954</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.097762888820341e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.001921567782317729</v>
+      </c>
+      <c r="G160" t="n">
+        <v>8.220458614496501e-07</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.0002900894094425669</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.09820513787689693</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0002300423953680035</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.001659362686019689</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.001826884208192589</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-2.384174864165708e-05</v>
+      </c>
+      <c r="N160" t="n">
+        <v>-3.696525818962301e-05</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0.0002920528182476628</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0.0006415437260655222</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>4142.061689244161</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1.1565</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.001411665994081</v>
+      </c>
+      <c r="B161" t="n">
+        <v>50.74400336541814</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-9.614395594808867e-07</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.153846807507229</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.09880445945756e-06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.002012640702515469</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3.523960855249545e-07</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.0002912056453280224</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.1027899930001295</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.0002122594934394276</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.001751585376062436</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.001754568388492811</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-3.352972772980625e-05</v>
+      </c>
+      <c r="N161" t="n">
+        <v>-4.353259868046838e-05</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0.000310179780173007</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0.0006553965570295957</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>4139.374508768266</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.1653</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.001393027531163</v>
+      </c>
+      <c r="B162" t="n">
+        <v>50.68391276567125</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-1.520006732704752e-06</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.1638057818431463</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.124363101865192e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.002105882074477625</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.998560632387215e-07</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.0002981490287134998</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.1074663022250122</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0002093005521328429</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.001842759559057982</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.001738879025915713</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-4.433667298441719e-05</v>
+      </c>
+      <c r="N162" t="n">
+        <v>-5.245133590071019e-05</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0.0003348670442824939</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.0006760910821721705</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>4136.52030088164</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.1741</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.001376764415748</v>
+      </c>
+      <c r="B163" t="n">
+        <v>50.62048795449337</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3.785643071374156e-06</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.1738764176643263</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.165737427948502e-06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.002185414861895794</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3.887297069657437e-07</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.0003029391600827567</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.1114275014572684</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0002222854816730816</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.001932734365191463</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.001719263687469484</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-5.437649951860509e-05</v>
+      </c>
+      <c r="N163" t="n">
+        <v>-6.341362297492651e-05</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0.000380670523101173</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0.0006927553341295714</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>4133.500500958659</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.183</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.001359138193884</v>
+      </c>
+      <c r="B164" t="n">
+        <v>50.55375959056985</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.46109057799376e-05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.1839684224249843</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.222181764093344e-06</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.002274405664290199</v>
+      </c>
+      <c r="G164" t="n">
+        <v>8.168151959241347e-07</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.0003054581248936817</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.1158406186789426</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0002457536268228928</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.00202037797176885</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.001703036924332459</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-6.362582329397648e-05</v>
+      </c>
+      <c r="N164" t="n">
+        <v>-7.569075888192016e-05</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0.0004593028419527459</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0.0007043192200236525</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>4130.326410829258</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.1918</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.001334583781724</v>
+      </c>
+      <c r="B165" t="n">
+        <v>50.48374333330844</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.850162575665884e-05</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.1940107860489972</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.301701774773115e-06</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.002353898655389651</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.247962881894561e-06</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.0003145647209364182</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.119744836567971</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0002671225270650862</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.002103372047567981</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.001770487400263367</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-7.38164185290806e-05</v>
+      </c>
+      <c r="N165" t="n">
+        <v>-8.801219536148725e-05</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0.0005664231337602878</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0.0007207223806478026</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>4127.013256631951</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.2007</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.001313451708367</v>
+      </c>
+      <c r="B166" t="n">
+        <v>50.41121800237148</v>
+      </c>
+      <c r="C166" t="n">
+        <v>3.819391376396225e-05</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.2038282968676327</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.303753659936743e-06</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.002418582962290377</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.512726966650976e-06</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.0003118761630555119</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.122850870313076</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0002795176967647459</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.002181656247322114</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.001696755361402316</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-8.557427298238074e-05</v>
+      </c>
+      <c r="N166" t="n">
+        <v>-9.826218205037665e-05</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0.0007036347205704084</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0.0007269700065159806</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>4123.571441601487</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.2094</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.00129552170209</v>
+      </c>
+      <c r="B167" t="n">
+        <v>50.33570215426619</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.050711975943921e-05</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.2134074004577168</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.316293617656825e-06</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.002479128429064658</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.468504565554662e-06</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.0003150089888378409</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.1257175619525902</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0002765334627375224</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.002251260299711536</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.001695632073661412</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-0.0001002679882383342</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-0.0001046573738674264</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0.0008390997488596562</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0.0007405966232737348</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>4119.979393924982</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.2182</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.001273803918931</v>
+      </c>
+      <c r="B168" t="n">
+        <v>50.25736585657491</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.520045886948981e-05</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.222581023931831</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.33143448889789e-06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.002522900663617613</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.450007795085641e-06</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.0003143506922582087</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.1277184158869658</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0002775369275421862</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.002312428706319313</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.001688113159144733</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-0.0001162440720381169</v>
+      </c>
+      <c r="N168" t="n">
+        <v>-0.0001081418838119482</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0.0009583512799609758</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0.0007516259001769591</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>4116.263254021859</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.2269</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.001246835485607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>50.17642695846909</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.398772992021172e-05</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.2311733631307269</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.363319053796072e-06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.002579390836023676</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.530882517774193e-06</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.0003104292490117478</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.1303381923270459</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0002870958064467311</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.002364509881089389</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.001676072100974501</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-0.0001326653532270399</v>
+      </c>
+      <c r="N169" t="n">
+        <v>-0.000108989915551563</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0.001050266755137238</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.0007590944763424988</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>4112.437739528968</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.2357</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.001225678750785</v>
+      </c>
+      <c r="B170" t="n">
+        <v>50.09315853274245</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.057748227488247e-05</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.2389998371925995</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.446701414591628e-06</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.002636955503990673</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.462331043422116e-06</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.0003153347807044865</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.1329977285918552</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0002920078771593326</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.002405798449659473</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.001755321688302556</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-0.0001494465526051008</v>
+      </c>
+      <c r="N170" t="n">
+        <v>-0.0001068931365536549</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0.001090518737927481</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0.0007726280719283242</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>4108.488982160703</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.2445</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.00120598937315</v>
+      </c>
+      <c r="B171" t="n">
+        <v>50.00877548351419</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-4.360636417137129e-06</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.2458396705763665</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.44594658159989e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.002696372897049592</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.569606565836018e-06</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.0003084133016344449</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.1357346357202642</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.000307682137813375</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.002441046502119889</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.001662844740201103</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-0.0001664468187534071</v>
+      </c>
+      <c r="N171" t="n">
+        <v>-0.0001022041012101549</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0.001142171468783847</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0.0007737340500953078</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>4104.486310740386</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.2531</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.001181255044391</v>
+      </c>
+      <c r="B172" t="n">
+        <v>49.92254519400351</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-1.351465981190107e-05</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.25164863002366</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.452578841039817e-06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.002769131886153708</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.377260627022235e-06</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.0003110140446297915</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.1391323526041511</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0003116845455478583</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.002470815646018294</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.001660730131323486</v>
+      </c>
+      <c r="M172" t="n">
+        <v>-0.0001843077527788931</v>
+      </c>
+      <c r="N172" t="n">
+        <v>-9.603421285519982e-05</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0.001166417015802762</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0.0007815907632627937</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>4100.41205807442</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1.2618</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.001150946103489</v>
+      </c>
+      <c r="B173" t="n">
+        <v>49.83459304845604</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.152142826440629e-05</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.2564337749529502</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.4742057217689e-06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.002837662053851673</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.316442218612683e-06</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.0003131267086612019</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.1423204592388326</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.0003247328061175379</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.002499430295240088</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.001656475488396251</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-0.0002019878083703505</v>
+      </c>
+      <c r="N173" t="n">
+        <v>-8.874508822426237e-05</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0.001174471981320403</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0.0007842589160109331</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>4096.274440810714</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.2705</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.001129715944759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>49.74494556417461</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.781450185708586e-06</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.2602543709344584</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.518108259933189e-06</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.002925524846426329</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.424172263400251e-06</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.0003146816580955557</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.1464840980255881</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.0003472302263910063</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.002528204815400213</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.001647192481511748</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-0.0002185069888683626</v>
+      </c>
+      <c r="N174" t="n">
+        <v>-8.09902212929944e-05</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0.001174851333166756</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0.0007814314081776173</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>4092.038565200374</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1.2791</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.001109914469554</v>
+      </c>
+      <c r="B175" t="n">
+        <v>49.65351722316884</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.627074722527458e-05</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.263221906312652</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.589133746618851e-06</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.003012878911644696</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.355304574997758e-06</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.0003272195929161716</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.1506572669117867</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0003598298910396052</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.002555192385585747</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.001736229532752908</v>
+      </c>
+      <c r="M175" t="n">
+        <v>-0.0002327060166565966</v>
+      </c>
+      <c r="N175" t="n">
+        <v>-7.398708952432644e-05</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0.001162854756705234</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0.0007859789038459117</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>4087.719506128539</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1.2878</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.001079272038382</v>
+      </c>
+      <c r="B176" t="n">
+        <v>49.56135265646329</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.179399043060393e-05</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-0.2654511974556567</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.599715612186374e-06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.003093253560218814</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.151941755882875e-06</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.0003302622109555695</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.1544444581452585</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0003621816232680924</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.002583081279083092</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.001649108882393389</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-0.0002429207415147471</v>
+      </c>
+      <c r="N176" t="n">
+        <v>-6.95429073194597e-05</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0.001110117532129362</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0.00077546487184545</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>4083.396881862378</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.2964</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.001047533853466</v>
+      </c>
+      <c r="B177" t="n">
+        <v>49.46716306584362</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7.58670050954581e-05</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.2671714093020662</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.637772605880403e-06</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.003170918721415119</v>
+      </c>
+      <c r="G177" t="n">
+        <v>5.615487157631619e-07</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.0003456559084211742</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.1580649226775875</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0003422978154394473</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.002608147668121444</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.001656165411546504</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-0.0002473602952690585</v>
+      </c>
+      <c r="N177" t="n">
+        <v>-6.857940911574011e-05</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0.001061604445687778</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0.0007721167181151135</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>4078.986821909635</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1.3049</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.001025469688817</v>
+      </c>
+      <c r="B178" t="n">
+        <v>49.37083064921931</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.227921158042582e-05</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-0.2686195412647122</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.692565176366918e-06</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.003227617449107703</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.592519907753774e-07</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.0003612360373880207</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.1606066709886507</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.0003303027000352983</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.002632522399274105</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.001656865371873649</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-0.000246508929505519</v>
+      </c>
+      <c r="N178" t="n">
+        <v>-7.011694820441489e-05</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0.001017861499462118</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0.0007640409347132419</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>4074.45870500214</v>
+      </c>
+      <c r="R178" t="n">
+        <v>1.3135</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.000997885839835</v>
+      </c>
+      <c r="B179" t="n">
+        <v>49.2723178725874</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.804741630234875e-05</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.269984565617203</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.751892301553807e-06</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.00328849602165725</v>
+      </c>
+      <c r="G179" t="n">
+        <v>8.948731531925146e-08</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.0003752170275206857</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.1633032636584661</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0003340487832792777</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.002655272706545999</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.001653791109728699</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-0.0002420951616306397</v>
+      </c>
+      <c r="N179" t="n">
+        <v>-7.368205116637832e-05</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0.000992481021293581</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0.0007515200727483583</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>4069.848847559203</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.322</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.000966810712044</v>
+      </c>
+      <c r="B180" t="n">
+        <v>49.17167710108212</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.362563555585401e-05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-0.2714073404104141</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.804145078487355e-06</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.00333564631871581</v>
+      </c>
+      <c r="G180" t="n">
+        <v>9.183949713366191e-08</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.0003982662969092365</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.1652716662805528</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.0003404344934919264</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.002671989808244651</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.001766037063889841</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-0.0002369267519980333</v>
+      </c>
+      <c r="N180" t="n">
+        <v>-7.941058176823173e-05</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0.0009947916336898724</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0.0007488715963557043</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>4065.155492004617</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1.3306</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.000939586135773</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49.07061059546228</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.091904031701213e-05</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-0.2728322917980793</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.850860414438167e-06</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-0.003372343981481482</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4.469965087996553e-07</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.00041058830296499</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.1666633881864108</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0003190113538590211</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.002685471976230333</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.00165198681701677</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-0.000235018173637969</v>
+      </c>
+      <c r="N181" t="n">
+        <v>-8.697533125034253e-05</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0.001014459568284359</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0.0007324148295583916</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>4060.441273892216</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.000912228723882</v>
+      </c>
+      <c r="B182" t="n">
+        <v>48.96793594744864</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.790614464154995e-05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.2741156855793432</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.900884590607569e-06</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.003414040259842166</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1.623141346070981e-06</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.0004346667658359115</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.1682719018722785</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.00026570162782106</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.002693256278709433</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.0016424055748085</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-0.0002353803985141032</v>
+      </c>
+      <c r="N182" t="n">
+        <v>-9.611127648595914e-05</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0.001064366458880774</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0.0007291708587603005</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>4055.661334686107</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.3475</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.000881211326338</v>
+      </c>
+      <c r="B183" t="n">
+        <v>48.86386402191134</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.011770791520905e-05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-0.2749634888914416</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.955497943416846e-06</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.003447385317460317</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2.849684174950684e-06</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.000457025226239662</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.1694599178324814</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0002090242847382895</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.002700878342126764</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.001617835942220232</v>
+      </c>
+      <c r="M183" t="n">
+        <v>-0.0002368870386893365</v>
+      </c>
+      <c r="N183" t="n">
+        <v>-0.0001046058374168485</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0.001114849114658812</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0.0007233858646817424</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>4050.834875256919</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1.3559</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.000853809075419</v>
+      </c>
+      <c r="B184" t="n">
+        <v>48.75856352569276</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.927967098802708e-05</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-0.2751065682121122</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.014581006435185e-06</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.003502084393776343</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-3.848057443009599e-06</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.00047713966141261</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.1716929388495302</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0001629271298276685</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.002710568316244681</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.001583605893574492</v>
+      </c>
+      <c r="M184" t="n">
+        <v>-0.0002380151502156956</v>
+      </c>
+      <c r="N184" t="n">
+        <v>-0.0001110448844282962</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0.001156913129920112</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0.0007146519216634233</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>4045.952429062511</v>
+      </c>
+      <c r="R184" t="n">
+        <v>1.3644</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.00082309826473</v>
+      </c>
+      <c r="B185" t="n">
+        <v>48.6521413189151</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.31319274187848e-05</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-0.2743005975126717</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.078124334865595e-06</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.003561236205833557</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4.644704832812079e-06</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.0005095455559884017</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.1741738386691777</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.0001270276896473844</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.002720864676872528</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.001682463983205648</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-0.0002369808332000337</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-0.0001148280813937838</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0.001180792939057188</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0.0007203651631484191</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>4041.035878907911</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1.3728</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.000791770917407</v>
+      </c>
+      <c r="B186" t="n">
+        <v>48.54643763264878</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.169048810395653e-05</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-0.2724905957932298</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.101317953818268e-06</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.003614663743162049</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4.552525003075957e-06</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.0005286647146234419</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.1763512232335914</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.0001363454052669044</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.00273589652267111</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.001529470830862286</v>
+      </c>
+      <c r="M186" t="n">
+        <v>-0.0002322577075025346</v>
+      </c>
+      <c r="N186" t="n">
+        <v>-0.0001158050438833497</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0.001165579678501803</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0.0007137222666050049</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>4036.163068854415</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.3811</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.000765213882163</v>
+      </c>
+      <c r="B187" t="n">
+        <v>48.43972020446596</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.503615142700298e-05</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-0.2696370490588849</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.161464342258878e-06</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.003673270017263025</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-3.504555290883444e-06</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.0005601574517890273</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.1787737803784414</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0001927392599754384</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.002748673274693848</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.001502859542029676</v>
+      </c>
+      <c r="M187" t="n">
+        <v>-0.0002215435413753469</v>
+      </c>
+      <c r="N187" t="n">
+        <v>-0.0001154903533508081</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0.001146657014707948</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0.0007247772436907004</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>4031.239769258757</v>
+      </c>
+      <c r="R187" t="n">
+        <v>1.3894</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.000731249439512</v>
+      </c>
+      <c r="B188" t="n">
+        <v>48.33185494076265</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.689106066658395e-05</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-0.2657863712187871</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.230085600145727e-06</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.003719871063133351</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2.164792614541294e-06</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.0005863122133847176</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.1805957150081208</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0002647740169807265</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.0027628722703619</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.00146366191197402</v>
+      </c>
+      <c r="M188" t="n">
+        <v>-0.0002053725413577693</v>
+      </c>
+      <c r="N188" t="n">
+        <v>-0.0001131284904053448</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0.0011151923806162</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0.0007348405770696822</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>4026.291107047194</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1.3977</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.000701279033271</v>
+      </c>
+      <c r="B189" t="n">
+        <v>48.22273388535159</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.021318734692469e-05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.2610666755246788</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.302812804351852e-06</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.003783886572953098</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1.130234404922215e-06</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.0006059662910470809</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.1832376043130163</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0003236661516766307</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.002778039080015244</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.001418392744057801</v>
+      </c>
+      <c r="M189" t="n">
+        <v>-0.0001851806668653596</v>
+      </c>
+      <c r="N189" t="n">
+        <v>-0.0001087412998264543</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0.00107589163387355</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0.0007426226048619145</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>4021.285288187471</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1.406</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.000671513205094</v>
+      </c>
+      <c r="B190" t="n">
+        <v>48.1122644238434</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.713285677570768e-05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.2556879687015551</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.397244481360304e-06</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.003845915935230024</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-8.836496694948869e-07</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.0006367964406119809</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.1857905760818661</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.0003456925983330777</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.002789148607499078</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.001533166711441443</v>
+      </c>
+      <c r="M190" t="n">
+        <v>-0.0001631828444030437</v>
+      </c>
+      <c r="N190" t="n">
+        <v>-0.0001032078504847971</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0.001026708233258647</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0.0007664634543893703</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>4016.226215227436</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1.4143</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.000636725405793</v>
+      </c>
+      <c r="B191" t="n">
+        <v>48.0025213359041</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.20135271500315e-05</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.2498831249741784</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.445552453026298e-06</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.003903486689534571</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1.132093805355464e-06</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.00065173167453548</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.1881259295379587</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.000341639162578842</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.002802111488443986</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.001351233607475096</v>
+      </c>
+      <c r="M191" t="n">
+        <v>-0.0001415554411465153</v>
+      </c>
+      <c r="N191" t="n">
+        <v>-9.683552167907212e-05</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0.0009772002988888016</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0.0007735438168846901</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>4011.224164938189</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1.4225</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.000607367052282</v>
+      </c>
+      <c r="B192" t="n">
+        <v>47.89155502371487</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.739045769001645e-05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.2436134448325262</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.495980906832347e-06</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.003960567265267689</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1.187920915758676e-06</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.0006800602620552467</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.1904286663378471</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0003455190508399843</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.002811011062473221</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.00132576491994496</v>
+      </c>
+      <c r="M192" t="n">
+        <v>-0.0001172947559607509</v>
+      </c>
+      <c r="N192" t="n">
+        <v>-8.965925070440867e-05</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0.0009351029372731732</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0.0007961160005780148</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>4006.163236750678</v>
+      </c>
+      <c r="R192" t="n">
+        <v>1.4306</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.000572671733477</v>
+      </c>
+      <c r="B193" t="n">
+        <v>47.77929786441675</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.655529144060244e-05</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.2369038807993005</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.568874312891781e-06</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.004001838265626402</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-9.84508344049853e-07</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.0007027706703586748</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.1919454018822427</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0003584651353254317</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.002821555422034894</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.001294195792144507</v>
+      </c>
+      <c r="M193" t="n">
+        <v>-9.079116389519499e-05</v>
+      </c>
+      <c r="N193" t="n">
+        <v>-8.181469602376842e-05</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0.0008887232955372089</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0.0008088797855417799</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>4001.066411053971</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1.4388</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.000540981750516</v>
+      </c>
+      <c r="B194" t="n">
+        <v>47.66571398055979</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.019349104352778e-05</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.2297965254084088</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.662823473959735e-06</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-0.00406080156039817</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-6.194406464958404e-07</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.0007171639801431361</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.1942709167837463</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.0003757002691802679</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.002833245881908947</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.001259554364152735</v>
+      </c>
+      <c r="M194" t="n">
+        <v>-6.218901004394224e-05</v>
+      </c>
+      <c r="N194" t="n">
+        <v>-7.422725300182344e-05</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0.000850498486932282</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0.0008094393206125757</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>3995.912761488123</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1.4469</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.000506704555645</v>
+      </c>
+      <c r="B195" t="n">
+        <v>47.55079130297233</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.63520805661121e-05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.222350605756777</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.75032508689594e-06</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.004122686141937942</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-3.663330852922368e-07</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.0007392804758349776</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-0.1967222166173438</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.0003866247718288531</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.002839045323787603</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.00139931486882432</v>
+      </c>
+      <c r="M195" t="n">
+        <v>-3.117939812727309e-05</v>
+      </c>
+      <c r="N195" t="n">
+        <v>-6.844042325010089e-05</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0.0008355754456130638</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0.000820917614899057</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>3990.714289253843</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.4551</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.000472173123487</v>
+      </c>
+      <c r="B196" t="n">
+        <v>47.43693965538716</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.610185079564455e-05</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.2147725717954606</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.804986214498924e-06</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.004193190034526052</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-3.502159176856293e-07</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.0007423325967013894</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-0.1995038481850158</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0003876992694506719</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.002845215877375223</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.00122384731161821</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.125616307325453e-06</v>
+      </c>
+      <c r="N196" t="n">
+        <v>-6.415950669352025e-05</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0.0008060612222262827</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0.0008152227338746152</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>3985.578025578651</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1.4631</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1.000440986794906</v>
+      </c>
+      <c r="B197" t="n">
+        <v>47.3219632394703</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.41889443211385e-05</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-0.2069844110089852</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.869687311575868e-06</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.004271172580934445</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-6.941552718478204e-07</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.0007605761668548287</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-0.2026362985008818</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.0003738393858147999</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.002848899777262129</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.00121332275341286</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3.273937379386752e-05</v>
+      </c>
+      <c r="N197" t="n">
+        <v>-5.915962628725375e-05</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0.000771542488643769</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0.0008284382035225852</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>3980.394768509777</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1.4711</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.000405416442472</v>
+      </c>
+      <c r="B198" t="n">
+        <v>47.20589346745184</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.028536399326386e-05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.1990987221928028</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.951869884641287e-06</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-0.00433402534638149</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1.515124985055149e-06</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.0007762078343472865</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-0.2050358994335336</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0003364647357485129</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.002859123426107149</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.001198761419433123</v>
+      </c>
+      <c r="M198" t="n">
+        <v>5.932605886322977e-05</v>
+      </c>
+      <c r="N198" t="n">
+        <v>-5.346313870241459e-05</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0.0007253918538393044</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0.0008344279771667962</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>3975.184560028257</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1.4791</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.000369515065914</v>
+      </c>
+      <c r="B199" t="n">
+        <v>47.0887877332875</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.944303073217136e-05</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.1912152140675351</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.055482839690387e-06</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.004407413563805936</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2.64277054628509e-06</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.000788736354508832</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.2079223926105282</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.0002824819318172451</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.002878635074806445</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.001185400840944989</v>
+      </c>
+      <c r="M199" t="n">
+        <v>7.989052330746371e-05</v>
+      </c>
+      <c r="N199" t="n">
+        <v>-4.788805903374386e-05</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0.0006734641293293818</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0.0008293521148512031</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>3969.941374583856</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1.4871</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.000334549872208</v>
+      </c>
+      <c r="B200" t="n">
+        <v>46.97073870741538</v>
+      </c>
+      <c r="C200" t="n">
+        <v>9.196095113666846e-05</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-0.1834206877216698</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.177396925224531e-06</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.004468442740561384</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-3.637339078383102e-06</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.0008174409405973431</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-0.210262916504748</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.0002338319632319787</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.00290346718125056</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.001360320090670491</v>
+      </c>
+      <c r="M200" t="n">
+        <v>9.701148732735106e-05</v>
+      </c>
+      <c r="N200" t="n">
+        <v>-4.392338792244593e-05</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0.0006161901194387399</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0.0008355100221725899</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>3964.664781625875</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.4951</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.000300570688727</v>
+      </c>
+      <c r="B201" t="n">
+        <v>46.85440281888022</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.0001240228641994</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.1759674495809662</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.259226757997041e-06</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.004514004386377902</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-3.804390816036678e-06</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.0008285569428191727</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.2118851133804641</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.0002221064494030184</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.002938867538349823</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.00119442286992936</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.0001122749095155056</v>
+      </c>
+      <c r="N201" t="n">
+        <v>-4.187150423558798e-05</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0.0005409277116104311</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0.0008173855944833984</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>3959.474804579273</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1.5029</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.000263425589633</v>
+      </c>
+      <c r="B202" t="n">
+        <v>46.73730810141592</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.0001501395061728389</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.168838866364152</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.329395066937942e-06</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.004560616982781813</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2.950544239182581e-06</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.0008542187113665378</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-0.2136299241971323</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.0002591638820484458</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.00297488762594162</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.00120208462832236</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.0001265692499957652</v>
+      </c>
+      <c r="N202" t="n">
+        <v>-4.235077061605708e-05</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.0004638183473681795</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0.0008174613559029087</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>3954.265829644446</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1.5107</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.000227880010761</v>
+      </c>
+      <c r="B203" t="n">
+        <v>46.6193479408922</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.0001649678794907523</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-0.1621411010984478</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.392863833180309e-06</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.004598886757914088</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1.332679355405343e-06</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.0008737607824155096</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-0.2149980239689514</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0003336279383719943</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.003016421070556702</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.001187762482614788</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.0001385922683808253</v>
+      </c>
+      <c r="N203" t="n">
+        <v>-4.340383269369215e-05</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.0003907012944510644</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0.000807076283208905</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>3949.024591540091</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1.5185</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.000193183458882</v>
+      </c>
+      <c r="B204" t="n">
+        <v>46.50043977122131</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.0001642342756379602</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-0.1559467993810165</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.461092675736481e-06</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.004667977262128957</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4.630789069590295e-07</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.0008887119520452239</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-0.2177702352927988</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.0004187374112133691</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.003063784138841558</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.001163560208478126</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.000148208802977436</v>
+      </c>
+      <c r="N204" t="n">
+        <v>-4.387408266177545e-05</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.0003363758887366915</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0.0007857828800551706</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>3943.749535591731</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1.5264</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.000155674210833</v>
+      </c>
+      <c r="B205" t="n">
+        <v>46.38053926092825</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.000144738600080088</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.150295230606877</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.548058746585731e-06</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.004753107837862076</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.544215582446079e-06</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.0009258748307806413</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-0.2212507035056647</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0004737058220668424</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.003112118298346436</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.001365038633209244</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.0001567405568330443</v>
+      </c>
+      <c r="N205" t="n">
+        <v>-4.362907317242444e-05</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0.0003121525869680254</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0.0007853456345305228</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>3938.444637844355</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1.5342</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1.000118404403192</v>
+      </c>
+      <c r="B206" t="n">
+        <v>46.26248796196654</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0001083415968672482</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-0.1453792639306552</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.674107755321159e-06</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-0.004827044695543001</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.687269100078483e-06</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.0009517749806015156</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-0.2240764824280832</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.0004837744038844917</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.003168649316080272</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.001160878106720841</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.0001598213931764839</v>
+      </c>
+      <c r="N206" t="n">
+        <v>-4.249734301670127e-05</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0.0003016311739609614</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0.0007637695109823296</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>3933.233127382063</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.5418</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1.000082268630616</v>
+      </c>
+      <c r="B207" t="n">
+        <v>46.14348127098716</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.977861315377818e-05</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-0.1411204703686353</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.793131732678684e-06</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-0.004890349174961887</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.075713541213318e-06</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.0009986339843181353</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.2264092323558425</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.0004583729805722464</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.003221927998734542</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.001176064984405478</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.0001580566921899755</v>
+      </c>
+      <c r="N207" t="n">
+        <v>-4.067519619994846e-05</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.0003130754447500971</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0.0007658579204751193</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>3927.984893581605</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1.5495</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1.00004398663797</v>
+      </c>
+      <c r="B208" t="n">
+        <v>46.02338540265446</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.879347161814113e-05</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.137522040577209</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.903955592201036e-06</v>
+      </c>
+      <c r="F208" t="n">
+        <v>-0.004927306019639494</v>
+      </c>
+      <c r="G208" t="n">
+        <v>3.888671859684163e-07</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.001033872315132263</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.2275237777628314</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.0004282060450885696</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.003276189877900835</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.001173609057356341</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.0001488981940643527</v>
+      </c>
+      <c r="N208" t="n">
+        <v>-3.770949698628175e-05</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.0003233612670259954</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0.0007565295608228212</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>3922.704659958794</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1.5571</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.00000512868801</v>
+      </c>
+      <c r="B209" t="n">
+        <v>45.90206438261639</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.173019932816129e-05</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-0.1344536056742059</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.999957069215765e-06</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-0.004976144373822975</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.456108793605997e-07</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.001052694867678479</v>
+      </c>
+      <c r="I209" t="n">
+        <v>-0.2291814112959475</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.0004170592896408144</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0.003330145401508583</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.001163510541183084</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.0001331379639836238</v>
+      </c>
+      <c r="N209" t="n">
+        <v>-3.45265512451549e-05</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0.0003346019206247457</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0.000735193803146367</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>3917.384283824542</v>
+      </c>
+      <c r="R209" t="n">
+        <v>1.5648</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.9999688776791319</v>
+      </c>
+      <c r="B210" t="n">
+        <v>45.77937204186969</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.145132828019293e-05</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.1316513294860851</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.069429083819164e-06</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-0.005022043888440499</v>
+      </c>
+      <c r="G210" t="n">
+        <v>7.302653803851631e-07</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.001080854375281978</v>
+      </c>
+      <c r="I210" t="n">
+        <v>-0.2307199672861926</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.0004425788115471705</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.003376718592895256</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.001388668131845288</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.0001147789387147441</v>
+      </c>
+      <c r="N210" t="n">
+        <v>-3.340459303003778e-05</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0.0003565572807415845</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0.0007381081832299452</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>3912.01182861432</v>
+      </c>
+      <c r="R210" t="n">
+        <v>1.5724</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.999930359272711</v>
+      </c>
+      <c r="B211" t="n">
+        <v>45.65843643818692</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.431970382576595e-05</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-0.1288866627943784</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.14965915209062e-06</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-0.005069140918975877</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.337819289570436e-06</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.001083885847541893</v>
+      </c>
+      <c r="I211" t="n">
+        <v>-0.2321970049397663</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.000464471719815051</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.003423660729985601</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.001186350536567043</v>
+      </c>
+      <c r="M211" t="n">
+        <v>9.651726803885299e-05</v>
+      </c>
+      <c r="N211" t="n">
+        <v>-3.208871109768431e-05</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0.0003795598991876663</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0.0007184013594736771</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>3906.738282145959</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1.5799</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.9998913128867366</v>
+      </c>
+      <c r="B212" t="n">
+        <v>45.53638698323021</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.486710897876922e-05</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-0.1259466219208798</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.26397071733488e-06</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-0.005112641671150569</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.716327615061437e-06</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.001102260110038586</v>
+      </c>
+      <c r="I212" t="n">
+        <v>-0.2335483920849152</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.0004724642894440211</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.003462975389912713</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.001211970667678398</v>
+      </c>
+      <c r="M212" t="n">
+        <v>8.2949874375e-05</v>
+      </c>
+      <c r="N212" t="n">
+        <v>-3.118227059321349e-05</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0.0003955982403397677</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0.0007210544550458854</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>3901.433011679083</v>
+      </c>
+      <c r="R212" t="n">
+        <v>1.5873</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.9998544141781006</v>
+      </c>
+      <c r="B213" t="n">
+        <v>45.41330235081058</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7.419592403272191e-05</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-0.1228559100164298</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.429593830848579e-06</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-0.005141762447314143</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.054705617209224e-06</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.001111274363448233</v>
+      </c>
+      <c r="I213" t="n">
+        <v>-0.2342514678553991</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.0004774914408753829</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.003502020500569207</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.001217248474746299</v>
+      </c>
+      <c r="M213" t="n">
+        <v>7.407231116199094e-05</v>
+      </c>
+      <c r="N213" t="n">
+        <v>-2.881300928709619e-05</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0.0004145235103155029</v>
+      </c>
+      <c r="P213" t="n">
+        <v>0.0007131176392180198</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>3896.095111536806</v>
+      </c>
+      <c r="R213" t="n">
+        <v>1.5948</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.9998158075508922</v>
+      </c>
+      <c r="B214" t="n">
+        <v>45.28909088870952</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8.903440161071902e-05</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-0.1197087388777658</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.615605592100036e-06</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-0.005198768239395571</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2.682002970290782e-06</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.001111655136867452</v>
+      </c>
+      <c r="I214" t="n">
+        <v>-0.2362136263937465</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.0004959084960130624</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.003542306708148995</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.001219003972638166</v>
+      </c>
+      <c r="M214" t="n">
+        <v>6.964240563607275e-05</v>
+      </c>
+      <c r="N214" t="n">
+        <v>-2.479224474779292e-05</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0.0004534882588355803</v>
+      </c>
+      <c r="P214" t="n">
+        <v>0.0006925177281624594</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>3890.727660764541</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1.6023</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.9997762425455115</v>
+      </c>
+      <c r="B215" t="n">
+        <v>45.16350576119232</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.0001018409574315697</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-0.1166688571527565</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.748258226556475e-06</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-0.005269474038202852</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4.07404426275446e-06</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.001132420472629996</v>
+      </c>
+      <c r="I215" t="n">
+        <v>-0.2388108537226358</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.0005496133209958124</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.003579115570034824</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.001477525124140349</v>
+      </c>
+      <c r="M215" t="n">
+        <v>6.934663196945932e-05</v>
+      </c>
+      <c r="N215" t="n">
+        <v>-2.032414953553617e-05</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0.0005093790129488791</v>
+      </c>
+      <c r="P215" t="n">
+        <v>0.0006913890737592353</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>3885.31901505064</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1.6097</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.9997380724822885</v>
+      </c>
+      <c r="B216" t="n">
+        <v>45.03962150255582</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0001150362487376564</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-0.1138454358705114</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.872235067927192e-06</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-0.005345852691462649</v>
+      </c>
+      <c r="G216" t="n">
+        <v>4.979157156488206e-06</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.001137425760767844</v>
+      </c>
+      <c r="I216" t="n">
+        <v>-0.2415234574128877</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.0005875918866201587</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0.003622256370068952</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.001250093172587997</v>
+      </c>
+      <c r="M216" t="n">
+        <v>7.464626367992035e-05</v>
+      </c>
+      <c r="N216" t="n">
+        <v>-1.48140537579826e-05</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0.000546307752305081</v>
+      </c>
+      <c r="P216" t="n">
+        <v>0.0006581761185507529</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>3879.999132596563</v>
+      </c>
+      <c r="R216" t="n">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.9996990985113441</v>
+      </c>
+      <c r="B217" t="n">
+        <v>44.91388805438476</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0001297646549449963</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-0.1111238137899031</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.982056483182563e-06</v>
+      </c>
+      <c r="F217" t="n">
+        <v>-0.005429233468971392</v>
+      </c>
+      <c r="G217" t="n">
+        <v>5.147470663247685e-06</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.001170956745180579</v>
+      </c>
+      <c r="I217" t="n">
+        <v>-0.2446153738080291</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0005963143019447686</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.003660835917827499</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.001272938043621773</v>
+      </c>
+      <c r="M217" t="n">
+        <v>8.689458573453799e-05</v>
+      </c>
+      <c r="N217" t="n">
+        <v>-9.336952162860337e-06</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0.0005283319246269456</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0.0006533502620950786</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>3874.615294318027</v>
+      </c>
+      <c r="R217" t="n">
+        <v>1.6243</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.9996597328714915</v>
+      </c>
+      <c r="B218" t="n">
+        <v>44.78604762029315</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0001387596671760871</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-0.1083706760754535</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.125271676809254e-06</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-0.005498577882028517</v>
+      </c>
+      <c r="G218" t="n">
+        <v>4.592556868525242e-06</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.001204200587432555</v>
+      </c>
+      <c r="I218" t="n">
+        <v>-0.2470982099263644</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0005756871033838521</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.003703264608058944</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.001277040819861983</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.0001015245880998331</v>
+      </c>
+      <c r="N218" t="n">
+        <v>-3.523771883793431e-06</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0.0004715008027052258</v>
+      </c>
+      <c r="P218" t="n">
+        <v>0.0006332754015213508</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>3869.156988309971</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1.6315</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.9996187876647834</v>
+      </c>
+      <c r="B219" t="n">
+        <v>44.65587764301159</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.0001384505745062719</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-0.1054634262119983</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.303144489819299e-06</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-0.005589295242579141</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3.378480824275854e-06</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.001235574736732132</v>
+      </c>
+      <c r="I219" t="n">
+        <v>-0.2505487795065714</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.0005271483135684765</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.003751109612686082</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.001270938568003741</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.0001168429555193044</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2.308688353184564e-06</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0.0004113565537026637</v>
+      </c>
+      <c r="P219" t="n">
+        <v>0.0005928237809317797</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>3863.615622861132</v>
+      </c>
+      <c r="R219" t="n">
+        <v>1.6388</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.9995783057012821</v>
+      </c>
+      <c r="B220" t="n">
+        <v>44.52318024853277</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.0001292297993425474</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-0.1022902260851331</v>
+      </c>
+      <c r="E220" t="n">
+        <v>5.470189085256396e-06</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-0.005679543964106359</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1.561608692751776e-06</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.001295241178381813</v>
+      </c>
+      <c r="I220" t="n">
+        <v>-0.2540211215175022</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.0004515330930690069</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0.003798197901034972</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.001548673917437443</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.0001345735747864822</v>
+      </c>
+      <c r="N220" t="n">
+        <v>7.247902187285145e-06</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0.0003736691234975314</v>
+      </c>
+      <c r="P220" t="n">
+        <v>0.0005704046534493948</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>3857.977146031528</v>
+      </c>
+      <c r="R220" t="n">
+        <v>1.646</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.9995374989911218</v>
+      </c>
+      <c r="B221" t="n">
+        <v>44.39166721469923</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.0001170297177599309</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-0.09894718414319779</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.635334920940947e-06</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-0.005774021732355842</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1.171370794496754e-06</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.001331728409402464</v>
+      </c>
+      <c r="I221" t="n">
+        <v>-0.2575081739679551</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.0003343005193079344</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.003855672657651531</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.001276518731365847</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.0001539801071340637</v>
+      </c>
+      <c r="N221" t="n">
+        <v>6.916355130867677e-06</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0.0003546802206101221</v>
+      </c>
+      <c r="P221" t="n">
+        <v>0.0005154128574693101</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>3852.404097275593</v>
+      </c>
+      <c r="R221" t="n">
+        <v>1.6531</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.9994958545197741</v>
+      </c>
+      <c r="B222" t="n">
+        <v>44.25764338524696</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.0001120991905496769</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-0.09544881006826743</v>
+      </c>
+      <c r="E222" t="n">
+        <v>5.774097627494507e-06</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-0.005872430438974084</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-4.38981336087571e-06</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.001396590696429194</v>
+      </c>
+      <c r="I222" t="n">
+        <v>-0.2611218447647944</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.0001896696899157025</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0.003911463136626387</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.001287716284112492</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.0001737239598389843</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2.177344598815269e-06</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0.0003448279881151292</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0.0004933741195435013</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>3846.738997655506</v>
+      </c>
+      <c r="R222" t="n">
+        <v>1.6602</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.9994553816922248</v>
+      </c>
+      <c r="B223" t="n">
+        <v>44.12104337926843</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.000112749079746211</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-0.0919819817288858</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5.924296010603308e-06</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.005959812039278988</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-7.081525902901075e-06</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.001451588882052121</v>
+      </c>
+      <c r="I223" t="n">
+        <v>-0.2641611015828177</v>
+      </c>
+      <c r="J223" t="n">
+        <v>6.562229616053361e-05</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.003974859082419738</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.001272849917054076</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.000190278655138316</v>
+      </c>
+      <c r="N223" t="n">
+        <v>-1.013624567452845e-05</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0.0003495311395394907</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0.0004643125321274749</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>3840.97824721059</v>
+      </c>
+      <c r="R223" t="n">
+        <v>1.6672</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.9994114624248946</v>
+      </c>
+      <c r="B224" t="n">
+        <v>43.98173467875327</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.0001170523005939944</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-0.08872244174820955</v>
+      </c>
+      <c r="E224" t="n">
+        <v>6.091795255454669e-06</v>
+      </c>
+      <c r="F224" t="n">
+        <v>-0.006078459939691507</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-8.60063703822528e-06</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.001493198361618726</v>
+      </c>
+      <c r="I224" t="n">
+        <v>-0.2684992517487221</v>
+      </c>
+      <c r="J224" t="n">
+        <v>-5.519545980741465e-06</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.004045991971130516</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.001241617924269883</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.0002026188747239597</v>
+      </c>
+      <c r="N224" t="n">
+        <v>-3.137826680976543e-05</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0.000381157753392882</v>
+      </c>
+      <c r="P224" t="n">
+        <v>0.00042619326667825</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>3835.12594185758</v>
+      </c>
+      <c r="R224" t="n">
+        <v>1.6743</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.9993688519527395</v>
+      </c>
+      <c r="B225" t="n">
+        <v>43.83951341247421</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.0001228417757631363</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-0.08583485043412058</v>
+      </c>
+      <c r="E225" t="n">
+        <v>6.244262601928078e-06</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-0.006209153999641288</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-8.690225648164963e-06</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.001558670414639067</v>
+      </c>
+      <c r="I225" t="n">
+        <v>-0.2733396284837434</v>
+      </c>
+      <c r="J225" t="n">
+        <v>-8.020802620374059e-06</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.004114655564880828</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.001546713603249254</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.0002121161063323077</v>
+      </c>
+      <c r="N225" t="n">
+        <v>-6.076622665221233e-05</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0.000437940666489372</v>
+      </c>
+      <c r="P225" t="n">
+        <v>0.0004211919951673181</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>3829.164186471094</v>
+      </c>
+      <c r="R225" t="n">
+        <v>1.6814</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.999325712828446</v>
+      </c>
+      <c r="B226" t="n">
+        <v>43.69850750181847</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.0001302590276220855</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-0.08347884908398101</v>
+      </c>
+      <c r="E226" t="n">
+        <v>6.403229811344276e-06</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-0.00633983992803336</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-7.184973420881536e-06</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.001592323375240076</v>
+      </c>
+      <c r="I226" t="n">
+        <v>-0.2779595174573282</v>
+      </c>
+      <c r="J226" t="n">
+        <v>6.202701899929229e-05</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.004192615019627662</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.001220661256158205</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.0002158249032573685</v>
+      </c>
+      <c r="N226" t="n">
+        <v>-9.421477716666542e-05</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0.0005527068793568089</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0.0003829043315746531</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>3823.271721948162</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1.6882</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.9992812728679044</v>
+      </c>
+      <c r="B227" t="n">
+        <v>43.55459538382208</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.0001428459124243969</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-0.08159865625381754</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6.507098968125056e-06</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-0.006468772456506144</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-4.450859220742536e-06</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.001658645000634099</v>
+      </c>
+      <c r="I227" t="n">
+        <v>-0.2824776037151625</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.0001822491232324701</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.004263556683741617</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.001218207808331615</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.0002131106444985378</v>
+      </c>
+      <c r="N227" t="n">
+        <v>-0.0001284564714477401</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0.0006454519278481501</v>
+      </c>
+      <c r="P227" t="n">
+        <v>0.0003881369893940753</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>3817.274618245515</v>
+      </c>
+      <c r="R227" t="n">
+        <v>1.6951</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.9992372963187157</v>
+      </c>
+      <c r="B228" t="n">
+        <v>43.40774981566177</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.0001562711083709509</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-0.08010079257697801</v>
+      </c>
+      <c r="E228" t="n">
+        <v>6.617343389305332e-06</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.006576022215496367</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1.108161681676525e-06</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.001713024560141785</v>
+      </c>
+      <c r="I228" t="n">
+        <v>-0.2860060813554339</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.0003191947149809682</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0.004336904960828128</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.001190756779452771</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.0002032372773178601</v>
+      </c>
+      <c r="N228" t="n">
+        <v>-0.000162047422624777</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0.0007023422391676569</v>
+      </c>
+      <c r="P228" t="n">
+        <v>0.0003833635872137651</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>3811.170590984322</v>
+      </c>
+      <c r="R228" t="n">
+        <v>1.7019</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.9991918153080441</v>
+      </c>
+      <c r="B229" t="n">
+        <v>43.25793820185533</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.0001666217914681874</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-0.07876414982099057</v>
+      </c>
+      <c r="E229" t="n">
+        <v>6.767034074746098e-06</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-0.006703172240157834</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2.199091005851483e-06</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.001750978112538549</v>
+      </c>
+      <c r="I229" t="n">
+        <v>-0.2903868611061289</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0004459215555449688</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.004410132663045916</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.001150730275225565</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.0001876814108032165</v>
+      </c>
+      <c r="N229" t="n">
+        <v>-0.0001933747314510906</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0.0007221880472458873</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0.0003657698675062426</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>3804.963304172324</v>
+      </c>
+      <c r="R229" t="n">
+        <v>1.7088</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.9991451743677695</v>
+      </c>
+      <c r="B230" t="n">
+        <v>43.10511018879721</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.0001703458884386295</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-0.07724012189499976</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6.957396483242255e-06</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-0.006830606899044927</v>
+      </c>
+      <c r="G230" t="n">
+        <v>4.899909516125234e-06</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.001815514455163482</v>
+      </c>
+      <c r="I230" t="n">
+        <v>-0.2948604841743142</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.0005461978216107296</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.004467466091668722</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.001497319114941733</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.0001703138062238314</v>
+      </c>
+      <c r="N230" t="n">
+        <v>-0.0002203600068228002</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0.0007049206039023653</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0.0003906834245280941</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>3798.649973983297</v>
+      </c>
+      <c r="R230" t="n">
+        <v>1.7157</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.9990996153932383</v>
+      </c>
+      <c r="B231" t="n">
+        <v>42.95410630212537</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.0001622316969348745</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-0.0752786576867097</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7.159476940052124e-06</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-0.006946037618823425</v>
+      </c>
+      <c r="G231" t="n">
+        <v>6.316041665646583e-06</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.001838521421565766</v>
+      </c>
+      <c r="I231" t="n">
+        <v>-0.2986099162755707</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.0005903988835648771</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0.004527312545667305</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.001129523973284938</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.0001481617872891943</v>
+      </c>
+      <c r="N231" t="n">
+        <v>-0.000240604893710797</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0.0006665884593564726</v>
+      </c>
+      <c r="P231" t="n">
+        <v>0.0003725229595268984</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>3792.430303884511</v>
+      </c>
+      <c r="R231" t="n">
+        <v>1.7223</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.9990530307819928</v>
+      </c>
+      <c r="B232" t="n">
+        <v>42.80033793057922</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.0001473794452042169</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-0.07260418271472663</v>
+      </c>
+      <c r="E232" t="n">
+        <v>7.317403709032822e-06</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.007072563137835172</v>
+      </c>
+      <c r="G232" t="n">
+        <v>7.459699643866022e-06</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.001893131725776301</v>
+      </c>
+      <c r="I232" t="n">
+        <v>-0.302878583011987</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.0006264583309730567</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0.004572070881286182</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.001127024222902602</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.0001256564851599944</v>
+      </c>
+      <c r="N232" t="n">
+        <v>-0.0002547998119306066</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0.0006362383509576869</v>
+      </c>
+      <c r="P232" t="n">
+        <v>0.0003927377288243892</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>3786.116452088603</v>
+      </c>
+      <c r="R232" t="n">
+        <v>1.7289</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.999005565644337</v>
+      </c>
+      <c r="B233" t="n">
+        <v>42.64372485277853</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.0001284344852977817</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-0.06908739991362259</v>
+      </c>
+      <c r="E233" t="n">
+        <v>7.485755309592188e-06</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-0.007190515911129048</v>
+      </c>
+      <c r="G233" t="n">
+        <v>8.013422844464615e-06</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.001931385619990649</v>
+      </c>
+      <c r="I233" t="n">
+        <v>-0.3066972392236869</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.0006384740475804361</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0.004618242957165028</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.001101526549014908</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.0001017505887070043</v>
+      </c>
+      <c r="N233" t="n">
+        <v>-0.0002651573133284515</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0.0006120863608826001</v>
+      </c>
+      <c r="P233" t="n">
+        <v>0.0003899250417084541</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>3779.70736917248</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1.7356</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.9989573157115954</v>
+      </c>
+      <c r="B234" t="n">
+        <v>42.48413874191652</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.0001083439284780131</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-0.06463119245730303</v>
+      </c>
+      <c r="E234" t="n">
+        <v>7.665955426196643e-06</v>
+      </c>
+      <c r="F234" t="n">
+        <v>-0.007341427568155321</v>
+      </c>
+      <c r="G234" t="n">
+        <v>8.142500880873915e-06</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.001951193824629362</v>
+      </c>
+      <c r="I234" t="n">
+        <v>-0.311828007764625</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.0006353134136059043</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.004667225172269055</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.001079552648003125</v>
+      </c>
+      <c r="M234" t="n">
+        <v>7.800740267581258e-05</v>
+      </c>
+      <c r="N234" t="n">
+        <v>-0.0002719954926514313</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0.0006002023288859369</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0.0003603976148334977</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>3773.198122481313</v>
+      </c>
+      <c r="R234" t="n">
+        <v>1.7422</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.9989077598421664</v>
+      </c>
+      <c r="B235" t="n">
+        <v>42.32139364058032</v>
+      </c>
+      <c r="C235" t="n">
+        <v>9.025457000617684e-05</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-0.05917086547226581</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7.80816508985325e-06</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-0.007499460690184736</v>
+      </c>
+      <c r="G235" t="n">
+        <v>8.549998454593195e-06</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.002005763734361838</v>
+      </c>
+      <c r="I235" t="n">
+        <v>-0.3172887030248907</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.0006523357017591218</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0.004703802258239794</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.00152302914145868</v>
+      </c>
+      <c r="M235" t="n">
+        <v>5.911049201365847e-05</v>
+      </c>
+      <c r="N235" t="n">
+        <v>-0.0002739363315151643</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0.0005959881548207652</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0.0003666332124104372</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>3766.582856221311</v>
+      </c>
+      <c r="R235" t="n">
+        <v>1.7489</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.9988592990538965</v>
+      </c>
+      <c r="B236" t="n">
+        <v>42.16080373334729</v>
+      </c>
+      <c r="C236" t="n">
+        <v>7.136190043369231e-05</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-0.05286629535733779</v>
+      </c>
+      <c r="E236" t="n">
+        <v>8.021376906091046e-06</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-0.007635770536274773</v>
+      </c>
+      <c r="G236" t="n">
+        <v>8.626777016870691e-06</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.002013884863707057</v>
+      </c>
+      <c r="I236" t="n">
+        <v>-0.3215361953711177</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.0006633011005328369</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.004744772621588497</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.001134121109443409</v>
+      </c>
+      <c r="M236" t="n">
+        <v>4.790795317822767e-05</v>
+      </c>
+      <c r="N236" t="n">
+        <v>-0.0002726011803536305</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0.0005265291216150269</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0.0003129378772047847</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>3760.075210864154</v>
+      </c>
+      <c r="R236" t="n">
+        <v>1.7553</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.9988096902744149</v>
+      </c>
+      <c r="B237" t="n">
+        <v>41.99717699085284</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.428662236944238e-05</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-0.0456165881899705</v>
+      </c>
+      <c r="E237" t="n">
+        <v>8.223986299911779e-06</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-0.007781405938929243</v>
+      </c>
+      <c r="G237" t="n">
+        <v>8.723038865740739e-06</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.002062505499629642</v>
+      </c>
+      <c r="I237" t="n">
+        <v>-0.3261960122535099</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.0006751601945465774</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0.004770142658730158</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.001168927005288079</v>
+      </c>
+      <c r="M237" t="n">
+        <v>4.97047155582708e-05</v>
+      </c>
+      <c r="N237" t="n">
+        <v>-0.0002654370579274591</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0.000435398715027545</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0.0003006592859671841</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>3753.464770319402</v>
+      </c>
+      <c r="R237" t="n">
+        <v>1.7618</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.9987591348309569</v>
+      </c>
+      <c r="B238" t="n">
+        <v>41.83017915059934</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.722769724252369e-05</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-0.03762797747761785</v>
+      </c>
+      <c r="E238" t="n">
+        <v>8.408366799324055e-06</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-0.007921396801856335</v>
+      </c>
+      <c r="G238" t="n">
+        <v>8.016478023363379e-06</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.002087961374143076</v>
+      </c>
+      <c r="I238" t="n">
+        <v>-0.330533697961817</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.0006497616301894948</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.004799910898312557</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.001155237818613864</v>
+      </c>
+      <c r="M238" t="n">
+        <v>6.373847795412594e-05</v>
+      </c>
+      <c r="N238" t="n">
+        <v>-0.0002530313218524248</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0.0003350687556034461</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0.0002611144848495775</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>3746.742423391</v>
+      </c>
+      <c r="R238" t="n">
+        <v>1.7682</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.9987076262218635</v>
+      </c>
+      <c r="B239" t="n">
+        <v>41.65939784299366</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.981907010457558e-05</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-0.02917314135290557</v>
+      </c>
+      <c r="E239" t="n">
+        <v>8.565792729427854e-06</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-0.008108138142319072</v>
+      </c>
+      <c r="G239" t="n">
+        <v>5.938753406264007e-06</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.002089535994516373</v>
+      </c>
+      <c r="I239" t="n">
+        <v>-0.3367661493363824</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.0005617990551233571</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0.004839066133985243</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.001129547243747633</v>
+      </c>
+      <c r="M239" t="n">
+        <v>8.634977663181055e-05</v>
+      </c>
+      <c r="N239" t="n">
+        <v>-0.0002375284387190984</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0.0002362904141835809</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0.0001932731180987131</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>3739.89352480886</v>
+      </c>
+      <c r="R239" t="n">
+        <v>1.7746</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.9986545391668908</v>
+      </c>
+      <c r="B240" t="n">
+        <v>41.48434508240417</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.959821843021451e-06</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-0.02059102766795236</v>
+      </c>
+      <c r="E240" t="n">
+        <v>8.687175325286858e-06</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-0.008319692171666218</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2.219884699500049e-06</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.002142238190050656</v>
+      </c>
+      <c r="I240" t="n">
+        <v>-0.3441300284167338</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.000401129198468124</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.004875314816726701</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.00164642367900136</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.0001116796841155066</v>
+      </c>
+      <c r="N240" t="n">
+        <v>-0.000222894484718442</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0.0001368656589166797</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0.0001748644638958576</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>3732.900216416661</v>
+      </c>
+      <c r="R240" t="n">
+        <v>1.7811</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.9986024003452606</v>
+      </c>
+      <c r="B241" t="n">
+        <v>41.31081242713658</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-9.64718310016994e-06</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-0.0123751239395819</v>
+      </c>
+      <c r="E241" t="n">
+        <v>8.852708312037374e-06</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-0.008525535047305174</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-3.108363649751143e-06</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.002152470409715565</v>
+      </c>
+      <c r="I241" t="n">
+        <v>-0.3507928970620471</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.0001681899682785675</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.00492640693064212</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.001165508316979934</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.0001321595058811741</v>
+      </c>
+      <c r="N241" t="n">
+        <v>-0.0002110233964276373</v>
+      </c>
+      <c r="O241" t="n">
+        <v>3.99003442793932e-05</v>
+      </c>
+      <c r="P241" t="n">
+        <v>9.688081774500169e-05</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>3725.99321437509</v>
+      </c>
+      <c r="R241" t="n">
+        <v>1.7873</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.9985486324096494</v>
+      </c>
+      <c r="B242" t="n">
+        <v>41.13280045885271</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-1.723336529982388e-05</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-0.004389442163999992</v>
+      </c>
+      <c r="E242" t="n">
+        <v>8.964351581554234e-06</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-0.008736178013182674</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-8.040446153147698e-06</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.002224678910613523</v>
+      </c>
+      <c r="I242" t="n">
+        <v>-0.3576240613074063</v>
+      </c>
+      <c r="J242" t="n">
+        <v>-4.39641787587186e-05</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.004956067288252249</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.001195223364349734</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.0001524936018462968</v>
+      </c>
+      <c r="N242" t="n">
+        <v>-0.0002034905334298991</v>
+      </c>
+      <c r="O242" t="n">
+        <v>-6.91612263857377e-05</v>
+      </c>
+      <c r="P242" t="n">
+        <v>7.679648802561306e-05</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>3718.937059517716</v>
+      </c>
+      <c r="R242" t="n">
+        <v>1.7935</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.9984936892431172</v>
+      </c>
+      <c r="B243" t="n">
+        <v>40.94998796196654</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-2.26280241433262e-05</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.003335399086223584</v>
+      </c>
+      <c r="E243" t="n">
+        <v>9.058184531701191e-06</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-0.008932907651780109</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1.084636565443121e-05</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.002273923467440825</v>
+      </c>
+      <c r="I243" t="n">
+        <v>-0.3636570298877032</v>
+      </c>
+      <c r="J243" t="n">
+        <v>-0.000170351306835959</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.004974133517534549</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.001168830267848568</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.0001674809690781407</v>
+      </c>
+      <c r="N243" t="n">
+        <v>-0.0002009963671163461</v>
+      </c>
+      <c r="O243" t="n">
+        <v>-0.0001823229048052491</v>
+      </c>
+      <c r="P243" t="n">
+        <v>2.647541147375921e-05</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>3711.723434910746</v>
+      </c>
+      <c r="R243" t="n">
+        <v>1.7997</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.9984374358801902</v>
+      </c>
+      <c r="B244" t="n">
+        <v>40.76213886522385</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-2.442727193126754e-05</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.01084708889663608</v>
+      </c>
+      <c r="E244" t="n">
+        <v>9.141849292333647e-06</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.009171349349834094</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1.067225481878306e-05</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.002295469016003734</v>
+      </c>
+      <c r="I244" t="n">
+        <v>-0.3711933187357387</v>
+      </c>
+      <c r="J244" t="n">
+        <v>-0.0001818656371544903</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.004977610705103678</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.001142205054637227</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.0001739867389376016</v>
+      </c>
+      <c r="N244" t="n">
+        <v>-0.0002013001092503288</v>
+      </c>
+      <c r="O244" t="n">
+        <v>-0.0002886076691165591</v>
+      </c>
+      <c r="P244" t="n">
+        <v>-6.147081380437975e-05</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>3704.347725944178</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.806</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.9983793344206797</v>
+      </c>
+      <c r="B245" t="n">
+        <v>40.56909744330353</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-1.687641648326333e-05</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.01827184086179677</v>
+      </c>
+      <c r="E245" t="n">
+        <v>9.191980543331315e-06</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-0.009429019731414223</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-7.586316757185457e-06</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.002382677559828684</v>
+      </c>
+      <c r="I245" t="n">
+        <v>-0.3795641222075251</v>
+      </c>
+      <c r="J245" t="n">
+        <v>-8.587862950155817e-05</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.004946241847055881</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.00179405588983029</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.0001721117283340059</v>
+      </c>
+      <c r="N245" t="n">
+        <v>-0.0001995658143900896</v>
+      </c>
+      <c r="O245" t="n">
+        <v>-0.0003653464773935727</v>
+      </c>
+      <c r="P245" t="n">
+        <v>-9.836937421454605e-05</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>3696.807122041853</v>
+      </c>
+      <c r="R245" t="n">
+        <v>1.8122</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.99832222278271</v>
+      </c>
+      <c r="B246" t="n">
+        <v>40.37779899535667</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.900870935837668e-06</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.02547788549984929</v>
+      </c>
+      <c r="E246" t="n">
+        <v>9.286019662807146e-06</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-0.009676423139180343</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-4.663260860023769e-06</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.002417692191729192</v>
+      </c>
+      <c r="I246" t="n">
+        <v>-0.3868510211465838</v>
+      </c>
+      <c r="J246" t="n">
+        <v>7.566608494255284e-06</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.004923488196768601</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.001202151968708667</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.0001733911265269245</v>
+      </c>
+      <c r="N246" t="n">
+        <v>-0.0001955383395372986</v>
+      </c>
+      <c r="O246" t="n">
+        <v>-0.000478045149884745</v>
+      </c>
+      <c r="P246" t="n">
+        <v>-0.0002185425583277845</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>3689.370467487019</v>
+      </c>
+      <c r="R246" t="n">
+        <v>1.8182</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.9982633009371358</v>
+      </c>
+      <c r="B247" t="n">
+        <v>40.18154447408802</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.808074468283897e-05</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.03283616228527087</v>
+      </c>
+      <c r="E247" t="n">
+        <v>9.355505097567483e-06</v>
+      </c>
+      <c r="F247" t="n">
+        <v>-0.009931218384001435</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-2.91912789042462e-06</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.002541756531313179</v>
+      </c>
+      <c r="I247" t="n">
+        <v>-0.3945508699394175</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5.46304939143476e-05</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.004862876821252951</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.001258098765297519</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.0001845203110814675</v>
+      </c>
+      <c r="N247" t="n">
+        <v>-0.0001895944800303162</v>
+      </c>
+      <c r="O247" t="n">
+        <v>-0.0005883626262381362</v>
+      </c>
+      <c r="P247" t="n">
+        <v>-0.0002847793910191163</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>3681.779277070664</v>
+      </c>
+      <c r="R247" t="n">
+        <v>1.8242</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.998202935386961</v>
+      </c>
+      <c r="B248" t="n">
+        <v>39.97992535547384</v>
+      </c>
+      <c r="C248" t="n">
+        <v>6.768075871994613e-05</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.0402707698570756</v>
+      </c>
+      <c r="E248" t="n">
+        <v>9.438793339651151e-06</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-0.01018190060084297</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1.903560015340538e-06</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.002642610897897267</v>
+      </c>
+      <c r="I248" t="n">
+        <v>-0.4018609887379308</v>
+      </c>
+      <c r="J248" t="n">
+        <v>8.138579701870273e-05</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.004798817689129774</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.00123997666024738</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.0002080047537050675</v>
+      </c>
+      <c r="N248" t="n">
+        <v>-0.0001825004107136941</v>
+      </c>
+      <c r="O248" t="n">
+        <v>-0.0006810554812887359</v>
+      </c>
+      <c r="P248" t="n">
+        <v>-0.0004058195229949606</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>3674.023220757389</v>
+      </c>
+      <c r="R248" t="n">
+        <v>1.8302</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.9981408761546052</v>
+      </c>
+      <c r="B249" t="n">
+        <v>39.77235972234677</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7.661753593972577e-05</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.04761098982406908</v>
+      </c>
+      <c r="E249" t="n">
+        <v>9.496463226129831e-06</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-0.01049506354923325</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1.239004625863133e-06</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.0027086903049082</v>
+      </c>
+      <c r="I249" t="n">
+        <v>-0.4114995218415887</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.0001036465653173855</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.004737869534678006</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.001220950986171077</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.000241381276614286</v>
+      </c>
+      <c r="N249" t="n">
+        <v>-0.0001754047539787911</v>
+      </c>
+      <c r="O249" t="n">
+        <v>-0.0007507862048631041</v>
+      </c>
+      <c r="P249" t="n">
+        <v>-0.0005886987573110658</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>3666.084357221412</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1.8362</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.9980765258160703</v>
+      </c>
+      <c r="B250" t="n">
+        <v>39.55809033071274</v>
+      </c>
+      <c r="C250" t="n">
+        <v>5.132854775574359e-05</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.05459131168253937</v>
+      </c>
+      <c r="E250" t="n">
+        <v>9.417989418310857e-06</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-0.01084714340642095</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-7.260760034223423e-07</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.002857095544243635</v>
+      </c>
+      <c r="I250" t="n">
+        <v>-0.4230146280478084</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.0001238091947159695</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.004651211636678138</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.002082198816011771</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.0002780475857217279</v>
+      </c>
+      <c r="N250" t="n">
+        <v>-0.0001700379558146909</v>
+      </c>
+      <c r="O250" t="n">
+        <v>-0.0008073791170518059</v>
+      </c>
+      <c r="P250" t="n">
+        <v>-0.0007177661971097478</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>3657.936997738472</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1.8422</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.9980129477176937</v>
+      </c>
+      <c r="B251" t="n">
+        <v>39.34432565215875</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-6.933241028458397e-06</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.06081886947277398</v>
+      </c>
+      <c r="E251" t="n">
+        <v>9.419111711921578e-06</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-0.01121459132813201</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-5.738202867007425e-07</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.002915858393135768</v>
+      </c>
+      <c r="I251" t="n">
+        <v>-0.4340403330792456</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.0001282374708016973</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.00458999360715413</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.001348613506503328</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.0003144677598798874</v>
+      </c>
+      <c r="N251" t="n">
+        <v>-0.0001620196792745294</v>
+      </c>
+      <c r="O251" t="n">
+        <v>-0.000846148139760323</v>
+      </c>
+      <c r="P251" t="n">
+        <v>-0.0009584881324631448</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>3649.853038241527</v>
+      </c>
+      <c r="R251" t="n">
+        <v>1.848</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.9979468404178998</v>
+      </c>
+      <c r="B252" t="n">
+        <v>39.1225350678564</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-8.620534857362194e-05</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.06651772589051556</v>
+      </c>
+      <c r="E252" t="n">
+        <v>9.400208043518517e-06</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-0.01161802686642453</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-8.14094156469147e-07</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.003085469368865877</v>
+      </c>
+      <c r="I252" t="n">
+        <v>-0.4465825913096981</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.0001195137052829719</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.004484763559197855</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.00143570643065478</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.0003556691005886368</v>
+      </c>
+      <c r="N252" t="n">
+        <v>-0.000147602141460924</v>
+      </c>
+      <c r="O252" t="n">
+        <v>-0.0009289304303200073</v>
+      </c>
+      <c r="P252" t="n">
+        <v>-0.001128788491348932</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>3641.515068390562</v>
+      </c>
+      <c r="R252" t="n">
+        <v>1.8538</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.9978783702134337</v>
+      </c>
+      <c r="B253" t="n">
+        <v>38.89135015295091</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-0.0001767708301198705</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.0717367381268243</v>
+      </c>
+      <c r="E253" t="n">
+        <v>9.349624037262689e-06</v>
+      </c>
+      <c r="F253" t="n">
+        <v>-0.01204020178010941</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1.624147097625793e-06</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.003216244332624895</v>
+      </c>
+      <c r="I253" t="n">
+        <v>-0.4592621680043643</v>
+      </c>
+      <c r="J253" t="n">
+        <v>8.774403537799275e-05</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.004382848868628125</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.001420085249317077</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.0004040926661525125</v>
+      </c>
+      <c r="N253" t="n">
+        <v>-0.0001234328540760856</v>
+      </c>
+      <c r="O253" t="n">
+        <v>-0.001048888004450211</v>
+      </c>
+      <c r="P253" t="n">
+        <v>-0.001370274112364368</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>3632.877961638512</v>
+      </c>
+      <c r="R253" t="n">
+        <v>1.8596</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.997807216281051</v>
+      </c>
+      <c r="B254" t="n">
+        <v>38.64928154176506</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-0.0002686731715728041</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.07644411262691314</v>
+      </c>
+      <c r="E254" t="n">
+        <v>9.194814867309997e-06</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-0.01255402459981167</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-3.179910605113894e-06</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.003295077978373688</v>
+      </c>
+      <c r="I254" t="n">
+        <v>-0.475036925624508</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2.576012199703057e-05</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.004288198355163836</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.00140029252930015</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.0004594521705902141</v>
+      </c>
+      <c r="N254" t="n">
+        <v>-9.222029495179181e-05</v>
+      </c>
+      <c r="O254" t="n">
+        <v>-0.001167906673645363</v>
+      </c>
+      <c r="P254" t="n">
+        <v>-0.001704375597991896</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>3623.892766721124</v>
+      </c>
+      <c r="R254" t="n">
+        <v>1.8654</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.9977326090148866</v>
+      </c>
+      <c r="B255" t="n">
+        <v>38.39472858998694</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-0.0003518529375977733</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.08052709154618978</v>
+      </c>
+      <c r="E255" t="n">
+        <v>8.823438824744754e-06</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-0.01313085377824859</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-5.621846371496958e-06</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.003490654741452578</v>
+      </c>
+      <c r="I255" t="n">
+        <v>-0.4938506395166353</v>
+      </c>
+      <c r="J255" t="n">
+        <v>-6.838295361278016e-05</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.0041483691407158</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.002543961325583191</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.0005191949598567331</v>
+      </c>
+      <c r="N255" t="n">
+        <v>-6.306022719841707e-05</v>
+      </c>
+      <c r="O255" t="n">
+        <v>-0.001232029508451596</v>
+      </c>
+      <c r="P255" t="n">
+        <v>-0.002001890390451071</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>3614.506658121976</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1.8712</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.9976579696888173</v>
+      </c>
+      <c r="B256" t="n">
+        <v>38.13626244905788</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.000426832321578035</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.08370349847429663</v>
+      </c>
+      <c r="E256" t="n">
+        <v>8.625231115543447e-06</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-0.0137590131367142</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-8.190779689131016e-06</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.003578222684192674</v>
+      </c>
+      <c r="I256" t="n">
+        <v>-0.5124297463979315</v>
+      </c>
+      <c r="J256" t="n">
+        <v>-0.0001527356017634189</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.004046045526997329</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.001553228367972566</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.0005685721782967895</v>
+      </c>
+      <c r="N256" t="n">
+        <v>-4.006002167156782e-05</v>
+      </c>
+      <c r="O256" t="n">
+        <v>-0.001328107741251445</v>
+      </c>
+      <c r="P256" t="n">
+        <v>-0.002466868697065535</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>3605.035944203748</v>
+      </c>
+      <c r="R256" t="n">
+        <v>1.8767</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.9975793158685321</v>
+      </c>
+      <c r="B257" t="n">
+        <v>37.86296025393836</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.0005071269085022264</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.08603355105477586</v>
+      </c>
+      <c r="E257" t="n">
+        <v>8.463196958925992e-06</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.0144544913696081</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1.013235177857368e-05</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.003850982335491592</v>
+      </c>
+      <c r="I257" t="n">
+        <v>-0.5339565316140057</v>
+      </c>
+      <c r="J257" t="n">
+        <v>-0.0002142271642578146</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.003876181774461994</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.001681456953391823</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.0006056624801089091</v>
+      </c>
+      <c r="N257" t="n">
+        <v>-2.591058290136535e-05</v>
+      </c>
+      <c r="O257" t="n">
+        <v>-0.001354760377475058</v>
+      </c>
+      <c r="P257" t="n">
+        <v>-0.002874071900335981</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>3595.090044093079</v>
+      </c>
+      <c r="R257" t="n">
+        <v>1.8823</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.9974966723836427</v>
+      </c>
+      <c r="B258" t="n">
+        <v>37.57240124826871</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-0.0006015637908346525</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.08755813122059868</v>
+      </c>
+      <c r="E258" t="n">
+        <v>8.16592070766781e-06</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.01521024140547933</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1.035905227824859e-05</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.004078946682559237</v>
+      </c>
+      <c r="I258" t="n">
+        <v>-0.5567690264450622</v>
+      </c>
+      <c r="J258" t="n">
+        <v>-0.0002164613333009494</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.003725194148254268</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.001664295811705595</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.0006278857684166716</v>
+      </c>
+      <c r="N258" t="n">
+        <v>-2.230360381214566e-05</v>
+      </c>
+      <c r="O258" t="n">
+        <v>-0.001359840524886339</v>
+      </c>
+      <c r="P258" t="n">
+        <v>-0.003411336487978345</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>3584.594725651436</v>
+      </c>
+      <c r="R258" t="n">
+        <v>1.8879</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.9974094204555645</v>
+      </c>
+      <c r="B259" t="n">
+        <v>37.26158341553822</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.0007082140337499011</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.08845007080444639</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7.667803069723567e-06</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-0.01612077508967806</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-8.576038635661707e-06</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.004235433543681838</v>
+      </c>
+      <c r="I259" t="n">
+        <v>-0.5845315030291255</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.0001453611133817724</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.003608645476812991</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.00164519025428686</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.0006412849678206488</v>
+      </c>
+      <c r="N259" t="n">
+        <v>-2.959355620427664e-05</v>
+      </c>
+      <c r="O259" t="n">
+        <v>-0.001328396238936311</v>
+      </c>
+      <c r="P259" t="n">
+        <v>-0.004100837022253984</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>3573.457929649806</v>
+      </c>
+      <c r="R259" t="n">
+        <v>1.8935</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.9973163830037663</v>
+      </c>
+      <c r="B260" t="n">
+        <v>36.92692611337797</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-0.0008143552179927182</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.08901404475181705</v>
+      </c>
+      <c r="E260" t="n">
+        <v>7.041068253944489e-06</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-0.01715610324186171</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-5.455863880072429e-06</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.004572407494651576</v>
+      </c>
+      <c r="I260" t="n">
+        <v>-0.6181453211719925</v>
+      </c>
+      <c r="J260" t="n">
+        <v>-1.522901079250517e-05</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.003450053089306384</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.003310443532965634</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.0006583582373780316</v>
+      </c>
+      <c r="N260" t="n">
+        <v>-4.728106750736607e-05</v>
+      </c>
+      <c r="O260" t="n">
+        <v>-0.001196288553397926</v>
+      </c>
+      <c r="P260" t="n">
+        <v>-0.004750253842121324</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>3561.571156320356</v>
+      </c>
+      <c r="R260" t="n">
+        <v>1.899</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.9972216983902789</v>
+      </c>
+      <c r="B261" t="n">
+        <v>36.57890490015842</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-0.000907249713067587</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.08948037522871639</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6.605155400842973e-06</v>
+      </c>
+      <c r="F261" t="n">
+        <v>-0.01829370040803516</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1.391781961371179e-06</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.004740825397009735</v>
+      </c>
+      <c r="I261" t="n">
+        <v>-0.6510501901922099</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.000174005358960083</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.003372857239341203</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.001934022605477349</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.0006826495347117294</v>
+      </c>
+      <c r="N261" t="n">
+        <v>-6.61308937608772e-05</v>
+      </c>
+      <c r="O261" t="n">
+        <v>-0.001046566748703834</v>
+      </c>
+      <c r="P261" t="n">
+        <v>-0.005637650030788345</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>3549.312527004426</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1.9044</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.9971201986368935</v>
+      </c>
+      <c r="B262" t="n">
+        <v>36.20088743909366</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.0009753801547625287</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.09010836072723298</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6.342623474299391e-06</v>
+      </c>
+      <c r="F262" t="n">
+        <v>-0.01957656735942965</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.165380680390776e-06</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.005180968612730421</v>
+      </c>
+      <c r="I262" t="n">
+        <v>-0.6899189805473348</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.000302464380698293</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.003210349550955258</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.002182189293899445</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.0007006618935571298</v>
+      </c>
+      <c r="N262" t="n">
+        <v>-8.52960979666497e-05</v>
+      </c>
+      <c r="O262" t="n">
+        <v>-0.0008892226358624039</v>
+      </c>
+      <c r="P262" t="n">
+        <v>-0.006485995987618264</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>3536.120761680085</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1.9098</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.9970114102995248</v>
+      </c>
+      <c r="B263" t="n">
+        <v>35.78689966146534</v>
+      </c>
+      <c r="C263" t="n">
+        <v>-0.001006442251855526</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.09091674161689534</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5.921423430451304e-06</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-0.02104864852927989</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2.506441028001971e-06</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.005527082018884206</v>
+      </c>
+      <c r="I263" t="n">
+        <v>-0.7334569235818411</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0003522688005149009</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.003095236414670334</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.002186956351372199</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.000710730522962278</v>
+      </c>
+      <c r="N263" t="n">
+        <v>-0.0001011220409583221</v>
+      </c>
+      <c r="O263" t="n">
+        <v>-0.0008593577142760617</v>
+      </c>
+      <c r="P263" t="n">
+        <v>-0.007559363679804127</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>3521.82278593927</v>
+      </c>
+      <c r="R263" t="n">
+        <v>1.9151</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.9968938461797149</v>
+      </c>
+      <c r="B264" t="n">
+        <v>35.32888234986398</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.0009799968370661825</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.0917323199231895</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5.220663706821138e-06</v>
+      </c>
+      <c r="F264" t="n">
+        <v>-0.02287837180521926</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2.71279917183436e-06</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.005713705975428305</v>
+      </c>
+      <c r="I264" t="n">
+        <v>-0.7876913491814386</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.0003162044986118581</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.003050993753970246</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.002166840286741473</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.000709313796478355</v>
+      </c>
+      <c r="N264" t="n">
+        <v>-0.0001155188065306736</v>
+      </c>
+      <c r="O264" t="n">
+        <v>-0.001009288479131051</v>
+      </c>
+      <c r="P264" t="n">
+        <v>-0.00888493714118334</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>3506.186290865717</v>
+      </c>
+      <c r="R264" t="n">
+        <v>1.9205</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.9967650989261052</v>
+      </c>
+      <c r="B265" t="n">
+        <v>34.8166998164091</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-0.00086434551490742</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.09219002189212601</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4.385524179891659e-06</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-0.02508728153921173</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1.613728007465698e-06</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.00609733379975267</v>
+      </c>
+      <c r="I265" t="n">
+        <v>-0.8575086211313885</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.0002014324198627863</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.002959180850615777</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.0048088392802052</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.0006946603831896305</v>
+      </c>
+      <c r="N265" t="n">
+        <v>-0.0001373296421563618</v>
+      </c>
+      <c r="O265" t="n">
+        <v>-0.001307191531835274</v>
+      </c>
+      <c r="P265" t="n">
+        <v>-0.01017065475367067</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>3488.918314920722</v>
+      </c>
+      <c r="R265" t="n">
+        <v>1.9258</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.9966298844274055</v>
+      </c>
+      <c r="B266" t="n">
+        <v>34.26253247092936</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.0006523745420384574</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.09203969656189902</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3.729373816862838e-06</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.02761922353376379</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-8.83568900390087e-07</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.006243156202222708</v>
+      </c>
+      <c r="I266" t="n">
+        <v>-0.9283800873613723</v>
+      </c>
+      <c r="J266" t="n">
+        <v>7.977454726469537e-05</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.002980046864161597</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.00265348254348898</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.000666283622938127</v>
+      </c>
+      <c r="N266" t="n">
+        <v>-0.0001509410245075616</v>
+      </c>
+      <c r="O266" t="n">
+        <v>-0.001599538338589152</v>
+      </c>
+      <c r="P266" t="n">
+        <v>-0.01185763027012629</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>3470.462207469723</v>
+      </c>
+      <c r="R266" t="n">
+        <v>1.931</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.9964800990942517</v>
+      </c>
+      <c r="B267" t="n">
+        <v>33.63372538835581</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-0.0002901108483656173</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.09124593158758182</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.621436799962336e-06</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-0.03060994489283473</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-5.833264398260248e-06</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.006735862863281425</v>
+      </c>
+      <c r="I267" t="n">
+        <v>-1.015493609192997</v>
+      </c>
+      <c r="J267" t="n">
+        <v>-7.811777599169002e-05</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.002864036088733684</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.00305594760275831</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.0006281687809544984</v>
+      </c>
+      <c r="N267" t="n">
+        <v>-0.0001648733745815727</v>
+      </c>
+      <c r="O267" t="n">
+        <v>-0.001988855571663727</v>
+      </c>
+      <c r="P267" t="n">
+        <v>-0.01349825584737542</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>3449.814107068458</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1.9361</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.9963134724464173</v>
+      </c>
+      <c r="B268" t="n">
+        <v>32.91224529563866</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.0002167562667372883</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.08983385834456827</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3.401556663543852e-06</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.03421978420096853</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1.388884983781724e-05</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.007030892830812657</v>
+      </c>
+      <c r="I268" t="n">
+        <v>-1.117457335664963</v>
+      </c>
+      <c r="J268" t="n">
+        <v>-0.0002944117169019467</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.002808891523055275</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.002941536651757541</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.000570091246764092</v>
+      </c>
+      <c r="N268" t="n">
+        <v>-0.0001686975440311594</v>
+      </c>
+      <c r="O268" t="n">
+        <v>-0.002517657691943734</v>
+      </c>
+      <c r="P268" t="n">
+        <v>-0.01549054280192967</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>3426.505810665299</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1.9413</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.996125980069052</v>
+      </c>
+      <c r="B269" t="n">
+        <v>32.07211536210006</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.0008710574357475408</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.08788324707196167</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.938647584437046e-06</v>
+      </c>
+      <c r="F269" t="n">
+        <v>-0.03875595085642543</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-2.433303776174784e-05</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.007016180637850054</v>
+      </c>
+      <c r="I269" t="n">
+        <v>-1.242577577745892</v>
+      </c>
+      <c r="J269" t="n">
+        <v>-0.0005560772448316792</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.002834348304534035</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.002460566359811944</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.0004905502045342284</v>
+      </c>
+      <c r="N269" t="n">
+        <v>-0.0001628976192906435</v>
+      </c>
+      <c r="O269" t="n">
+        <v>-0.003160132986822937</v>
+      </c>
+      <c r="P269" t="n">
+        <v>-0.01786102580134505</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>3399.88922335654</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1.9464</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.9959122001390011</v>
+      </c>
+      <c r="B270" t="n">
+        <v>31.07942814358951</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.001719898645306786</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.08552909649160138</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.682460178839661e-06</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-0.04452375707840105</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-3.493850572820263e-05</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.00716173378370528</v>
+      </c>
+      <c r="I270" t="n">
+        <v>-1.407386976753455</v>
+      </c>
+      <c r="J270" t="n">
+        <v>-0.0008149600496676308</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.002747071586616328</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.00602622574848472</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.000397889294709116</v>
+      </c>
+      <c r="N270" t="n">
+        <v>-0.0001627940400143734</v>
+      </c>
+      <c r="O270" t="n">
+        <v>-0.003943805640231507</v>
+      </c>
+      <c r="P270" t="n">
+        <v>-0.02009455666715856</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>3369.173360293489</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1.9516</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.9956768670971214</v>
+      </c>
+      <c r="B271" t="n">
+        <v>29.94254196185693</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.002538362783117981</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.08301464838029536</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.512017730972559e-06</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-0.05104000903506412</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-4.194416304277643e-05</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.007182928371317036</v>
+      </c>
+      <c r="I271" t="n">
+        <v>-1.564521677801692</v>
+      </c>
+      <c r="J271" t="n">
+        <v>-0.0008964430414425339</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.002728318499729583</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.001391185094612018</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.0003025220197910127</v>
+      </c>
+      <c r="N271" t="n">
+        <v>-0.0001260342442370888</v>
+      </c>
+      <c r="O271" t="n">
+        <v>-0.004680879102855124</v>
+      </c>
+      <c r="P271" t="n">
+        <v>-0.02283286543178034</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>3334.859671053668</v>
+      </c>
+      <c r="R271" t="n">
+        <v>1.9565</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.9954057696619136</v>
+      </c>
+      <c r="B272" t="n">
+        <v>28.57225847955839</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.003560343197269614</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.0802716572079088</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.238250452449332e-06</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-0.05886101032418617</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-4.216135635633577e-05</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.007526001963037134</v>
+      </c>
+      <c r="I272" t="n">
+        <v>-1.749143902141313</v>
+      </c>
+      <c r="J272" t="n">
+        <v>-0.0008102242344508215</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.002501629882749181</v>
+      </c>
+      <c r="L272" t="n">
+        <v>-0.0001403259878253944</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.000196981160876248</v>
+      </c>
+      <c r="N272" t="n">
+        <v>-9.858753669096693e-05</v>
+      </c>
+      <c r="O272" t="n">
+        <v>-0.005583573162657934</v>
+      </c>
+      <c r="P272" t="n">
+        <v>-0.02509577027545611</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>3294.916357742911</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1.9615</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.9950929523136938</v>
+      </c>
+      <c r="B273" t="n">
+        <v>26.89415901912135</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.004505947736233484</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.07693972082759207</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.560610017075935e-06</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-0.06792120251546946</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-3.60318071853197e-05</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.007418276756233723</v>
+      </c>
+      <c r="I273" t="n">
+        <v>-1.93277567657111</v>
+      </c>
+      <c r="J273" t="n">
+        <v>-0.000591160769452335</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.002235262512405651</v>
+      </c>
+      <c r="L273" t="n">
+        <v>-0.002910067963144685</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.0001023370489753037</v>
+      </c>
+      <c r="N273" t="n">
+        <v>-6.33397802722601e-05</v>
+      </c>
+      <c r="O273" t="n">
+        <v>-0.006436279007749055</v>
+      </c>
+      <c r="P273" t="n">
+        <v>-0.02708289187495244</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>3247.97554876998</v>
+      </c>
+      <c r="R273" t="n">
+        <v>1.9664</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.9947324391310196</v>
+      </c>
+      <c r="B274" t="n">
+        <v>24.80676772262577</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.005207004264095646</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07240221556562254</v>
+      </c>
+      <c r="E274" t="n">
+        <v>3.307379500423415e-06</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-0.07815692736077481</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2.61045228003094e-05</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.006779348497684188</v>
+      </c>
+      <c r="I274" t="n">
+        <v>-2.094940860436035</v>
+      </c>
+      <c r="J274" t="n">
+        <v>-0.0003169453808490644</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.001964711950455676</v>
+      </c>
+      <c r="L274" t="n">
+        <v>-0.006736905931779231</v>
+      </c>
+      <c r="M274" t="n">
+        <v>3.425228980703651e-05</v>
+      </c>
+      <c r="N274" t="n">
+        <v>-2.673982921313111e-05</v>
+      </c>
+      <c r="O274" t="n">
+        <v>-0.006920178517442072</v>
+      </c>
+      <c r="P274" t="n">
+        <v>-0.02835302998419673</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>3192.847076025854</v>
+      </c>
+      <c r="R274" t="n">
+        <v>1.9714</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.9943167838646757</v>
+      </c>
+      <c r="B275" t="n">
+        <v>22.18155364429199</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.005179275496876775</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.06578678867937043</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.124512207229172e-06</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-0.08645539886557259</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1.725780852064277e-05</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.006423889398330304</v>
+      </c>
+      <c r="I275" t="n">
+        <v>-2.13927796460706</v>
+      </c>
+      <c r="J275" t="n">
+        <v>-0.0001336562641745509</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.001707717853256652</v>
+      </c>
+      <c r="L275" t="n">
+        <v>-0.007758497094244849</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1.736548453115854e-07</v>
+      </c>
+      <c r="N275" t="n">
+        <v>-2.38240596412255e-05</v>
+      </c>
+      <c r="O275" t="n">
+        <v>-0.006752574693946045</v>
+      </c>
+      <c r="P275" t="n">
+        <v>-0.02788283530012505</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>3128.432889156642</v>
+      </c>
+      <c r="R275" t="n">
+        <v>1.9763</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.9938893237994351</v>
+      </c>
+      <c r="B276" t="n">
+        <v>19.03068504226079</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.006639513447418112</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.05713817599034</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.988152742251816e-06</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-0.09415113524011298</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-6.92172878305463e-05</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.00530842208623652</v>
+      </c>
+      <c r="I276" t="n">
+        <v>-2.066281757241503</v>
+      </c>
+      <c r="J276" t="n">
+        <v>-0.001258912424986409</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.001029485878153816</v>
+      </c>
+      <c r="L276" t="n">
+        <v>-0.0135983697917087</v>
+      </c>
+      <c r="M276" t="n">
+        <v>6.812722760778881e-05</v>
+      </c>
+      <c r="N276" t="n">
+        <v>8.861665195610251e-06</v>
+      </c>
+      <c r="O276" t="n">
+        <v>-0.006038716575881647</v>
+      </c>
+      <c r="P276" t="n">
+        <v>-0.02344264409965901</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>3059.371008319238</v>
+      </c>
+      <c r="R276" t="n">
+        <v>1.981</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.9938886783696529</v>
+      </c>
+      <c r="B277" t="n">
+        <v>19.01977165725047</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-0.002813913344767285</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.05407889004237288</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3.82083472740113e-06</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-0.09422234382566586</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0004472501991858354</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.004205795045862479</v>
+      </c>
+      <c r="I277" t="n">
+        <v>-2.067030131826742</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.01056004470170836</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.000785849077836629</v>
+      </c>
+      <c r="L277" t="n">
+        <v>-0.01311072961169402</v>
+      </c>
+      <c r="M277" t="n">
+        <v>-0.0004332826846866368</v>
+      </c>
+      <c r="N277" t="n">
+        <v>-2.302656159537262e-05</v>
+      </c>
+      <c r="O277" t="n">
+        <v>-0.006303034079959196</v>
+      </c>
+      <c r="P277" t="n">
+        <v>-0.02894945733566496</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>3058.958929501227</v>
+      </c>
+      <c r="R277" t="n">
+        <v>1.9811</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.9934446175230922</v>
+      </c>
+      <c r="B278" t="n">
+        <v>15.13993981606034</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.00402541799072019</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.04506407606366774</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.347140590697023e-06</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-0.09120986788180432</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1.370996626917989e-05</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.004185500445701226</v>
+      </c>
+      <c r="I278" t="n">
+        <v>-1.662178286825297</v>
+      </c>
+      <c r="J278" t="n">
+        <v>2.747736017721386e-05</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.0007195588048143166</v>
+      </c>
+      <c r="L278" t="n">
+        <v>-0.01336146151478878</v>
+      </c>
+      <c r="M278" t="n">
+        <v>2.430647117633943e-05</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2.495632415167053e-06</v>
+      </c>
+      <c r="O278" t="n">
+        <v>-0.004225532546652578</v>
+      </c>
+      <c r="P278" t="n">
+        <v>-0.0174787599091121</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>2985.955550382564</v>
+      </c>
+      <c r="R278" t="n">
+        <v>1.9858</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.9930474853152182</v>
+      </c>
+      <c r="B279" t="n">
+        <v>10.52973845145926</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.002391508397252738</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.0311679102688324</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.216567805373285e-06</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-0.07403167344856963</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1.841367321983006e-05</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.002462645353483849</v>
+      </c>
+      <c r="I279" t="n">
+        <v>-0.9812241122495241</v>
+      </c>
+      <c r="J279" t="n">
+        <v>-5.114212713956892e-05</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.0004774121351724185</v>
+      </c>
+      <c r="L279" t="n">
+        <v>-0.008191004756728969</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2.365922332135135e-05</v>
+      </c>
+      <c r="N279" t="n">
+        <v>-6.267883976891086e-06</v>
+      </c>
+      <c r="O279" t="n">
+        <v>-0.002184485992645964</v>
+      </c>
+      <c r="P279" t="n">
+        <v>-0.009549602893938199</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>2918.722703104217</v>
+      </c>
+      <c r="R279" t="n">
+        <v>1.9905</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.9927664939243116</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5.372829594256619</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.001209826115967303</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.01584853468721975</v>
+      </c>
+      <c r="E280" t="n">
+        <v>3.134692380593672e-08</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-0.042097483118106</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-2.235908476747938e-05</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.0004678633758337069</v>
+      </c>
+      <c r="I280" t="n">
+        <v>-0.2950293438431033</v>
+      </c>
+      <c r="J280" t="n">
+        <v>-7.810761070051639e-05</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.0001553000013523326</v>
+      </c>
+      <c r="L280" t="n">
+        <v>-0.001510301244825832</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1.008697216418059e-05</v>
+      </c>
+      <c r="N280" t="n">
+        <v>-8.956407659066452e-06</v>
+      </c>
+      <c r="O280" t="n">
+        <v>-0.0006251481499811302</v>
+      </c>
+      <c r="P280" t="n">
+        <v>-0.002820837828764548</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>2869.813100573333</v>
+      </c>
+      <c r="R280" t="n">
+        <v>1.9953</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.9926726682584521</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.0003279182868066018</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-0.0008387464491546598</v>
+      </c>
+      <c r="D281" t="n">
+        <v>6.16880535342496e-07</v>
+      </c>
+      <c r="E281" t="n">
+        <v>-1.144270151844005e-06</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.005119736982353264</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2.306277580194265e-05</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.0001895913596061265</v>
+      </c>
+      <c r="I281" t="n">
+        <v>-0.00554779493289086</v>
+      </c>
+      <c r="J281" t="n">
+        <v>-2.354399440144257e-05</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2.367411942118694e-05</v>
+      </c>
+      <c r="L281" t="n">
+        <v>-0.0008887854291202209</v>
+      </c>
+      <c r="M281" t="n">
+        <v>-2.926869437791453e-06</v>
+      </c>
+      <c r="N281" t="n">
+        <v>-9.882689221233272e-06</v>
+      </c>
+      <c r="O281" t="n">
+        <v>4.251469860963515e-05</v>
+      </c>
+      <c r="P281" t="n">
+        <v>-0.00118267856217833</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>2852.949173061081</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
